--- a/createYaml/VII.xlsx
+++ b/createYaml/VII.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/Desktop/createYaml/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/Desktop/Current-Projects/ParserTools/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96857EFD-1F49-184A-8723-91A625F7A841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E53E6-B686-1446-BB22-97C9645361BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="760" windowWidth="23340" windowHeight="20460" xr2:uid="{F60773C9-26C0-414F-936B-204C5C4D934C}"/>
+    <workbookView xWindow="-27320" yWindow="4080" windowWidth="23340" windowHeight="14860" xr2:uid="{F60773C9-26C0-414F-936B-204C5C4D934C}"/>
   </bookViews>
   <sheets>
     <sheet name="VII_IND" sheetId="1" r:id="rId1"/>
@@ -1062,9 +1062,6 @@
     <t>VII</t>
   </si>
   <si>
-    <t>Conjunct</t>
-  </si>
-  <si>
     <t>Lexeme</t>
   </si>
   <si>
@@ -1092,7 +1089,10 @@
     <t>atemagasininiibanen</t>
   </si>
   <si>
-    <t>Independent</t>
+    <t>Ind</t>
+  </si>
+  <si>
+    <t>Cnj</t>
   </si>
 </sst>
 </file>
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA193F61-3C0D-9941-81CC-6F6AD6C92B40}">
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1525,7 +1525,7 @@
         <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1551,7 +1551,7 @@
         <v>341</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1577,7 +1577,7 @@
         <v>341</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1603,7 +1603,7 @@
         <v>341</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1629,7 +1629,7 @@
         <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1655,7 +1655,7 @@
         <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -1681,7 +1681,7 @@
         <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -1707,7 +1707,7 @@
         <v>341</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1733,7 +1733,7 @@
         <v>341</v>
       </c>
       <c r="B11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -1762,7 +1762,7 @@
         <v>341</v>
       </c>
       <c r="B12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1788,7 +1788,7 @@
         <v>341</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1817,7 +1817,7 @@
         <v>341</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1843,7 +1843,7 @@
         <v>341</v>
       </c>
       <c r="B15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1872,7 +1872,7 @@
         <v>341</v>
       </c>
       <c r="B16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -1898,7 +1898,7 @@
         <v>341</v>
       </c>
       <c r="B17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1927,7 +1927,7 @@
         <v>341</v>
       </c>
       <c r="B18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -1953,7 +1953,7 @@
         <v>341</v>
       </c>
       <c r="B19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1979,7 +1979,7 @@
         <v>341</v>
       </c>
       <c r="B20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -2005,7 +2005,7 @@
         <v>341</v>
       </c>
       <c r="B21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -2031,7 +2031,7 @@
         <v>341</v>
       </c>
       <c r="B22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -2057,7 +2057,7 @@
         <v>341</v>
       </c>
       <c r="B23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
@@ -2083,7 +2083,7 @@
         <v>341</v>
       </c>
       <c r="B24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -2109,7 +2109,7 @@
         <v>341</v>
       </c>
       <c r="B25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -2135,7 +2135,7 @@
         <v>341</v>
       </c>
       <c r="B26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -2161,7 +2161,7 @@
         <v>341</v>
       </c>
       <c r="B27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -2190,7 +2190,7 @@
         <v>341</v>
       </c>
       <c r="B28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -2216,7 +2216,7 @@
         <v>341</v>
       </c>
       <c r="B29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -2245,7 +2245,7 @@
         <v>341</v>
       </c>
       <c r="B30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -2271,7 +2271,7 @@
         <v>341</v>
       </c>
       <c r="B31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -2300,7 +2300,7 @@
         <v>341</v>
       </c>
       <c r="B32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -2326,7 +2326,7 @@
         <v>341</v>
       </c>
       <c r="B33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -2355,7 +2355,7 @@
         <v>341</v>
       </c>
       <c r="B34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -2381,7 +2381,7 @@
         <v>341</v>
       </c>
       <c r="B35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C35" t="s">
         <v>23</v>
@@ -2407,7 +2407,7 @@
         <v>341</v>
       </c>
       <c r="B36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
@@ -2433,7 +2433,7 @@
         <v>341</v>
       </c>
       <c r="B37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
@@ -2459,7 +2459,7 @@
         <v>341</v>
       </c>
       <c r="B38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -2485,7 +2485,7 @@
         <v>341</v>
       </c>
       <c r="B39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C39" t="s">
         <v>23</v>
@@ -2511,7 +2511,7 @@
         <v>341</v>
       </c>
       <c r="B40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
@@ -2537,7 +2537,7 @@
         <v>341</v>
       </c>
       <c r="B41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
@@ -2563,7 +2563,7 @@
         <v>341</v>
       </c>
       <c r="B42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C42" t="s">
         <v>23</v>
@@ -2589,7 +2589,7 @@
         <v>341</v>
       </c>
       <c r="B43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C43" t="s">
         <v>23</v>
@@ -2618,7 +2618,7 @@
         <v>341</v>
       </c>
       <c r="B44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C44" t="s">
         <v>23</v>
@@ -2644,7 +2644,7 @@
         <v>341</v>
       </c>
       <c r="B45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C45" t="s">
         <v>23</v>
@@ -2673,7 +2673,7 @@
         <v>341</v>
       </c>
       <c r="B46" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C46" t="s">
         <v>23</v>
@@ -2699,7 +2699,7 @@
         <v>341</v>
       </c>
       <c r="B47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
@@ -2728,7 +2728,7 @@
         <v>341</v>
       </c>
       <c r="B48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C48" t="s">
         <v>23</v>
@@ -2754,7 +2754,7 @@
         <v>341</v>
       </c>
       <c r="B49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C49" t="s">
         <v>23</v>
@@ -2775,7 +2775,7 @@
         <v>127</v>
       </c>
       <c r="I49" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2783,7 +2783,7 @@
         <v>341</v>
       </c>
       <c r="B50" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C50" t="s">
         <v>23</v>
@@ -2809,7 +2809,7 @@
         <v>341</v>
       </c>
       <c r="B51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C51" t="s">
         <v>23</v>
@@ -2835,7 +2835,7 @@
         <v>341</v>
       </c>
       <c r="B52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C52" t="s">
         <v>23</v>
@@ -2861,7 +2861,7 @@
         <v>341</v>
       </c>
       <c r="B53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C53" t="s">
         <v>23</v>
@@ -2887,7 +2887,7 @@
         <v>341</v>
       </c>
       <c r="B54" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
@@ -2913,7 +2913,7 @@
         <v>341</v>
       </c>
       <c r="B55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C55" t="s">
         <v>23</v>
@@ -2939,7 +2939,7 @@
         <v>341</v>
       </c>
       <c r="B56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C56" t="s">
         <v>23</v>
@@ -2965,7 +2965,7 @@
         <v>341</v>
       </c>
       <c r="B57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C57" t="s">
         <v>23</v>
@@ -2991,7 +2991,7 @@
         <v>341</v>
       </c>
       <c r="B58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C58" t="s">
         <v>23</v>
@@ -3017,7 +3017,7 @@
         <v>341</v>
       </c>
       <c r="B59" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C59" t="s">
         <v>23</v>
@@ -3046,7 +3046,7 @@
         <v>341</v>
       </c>
       <c r="B60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C60" t="s">
         <v>23</v>
@@ -3072,7 +3072,7 @@
         <v>341</v>
       </c>
       <c r="B61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C61" t="s">
         <v>23</v>
@@ -3101,7 +3101,7 @@
         <v>341</v>
       </c>
       <c r="B62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C62" t="s">
         <v>23</v>
@@ -3127,7 +3127,7 @@
         <v>341</v>
       </c>
       <c r="B63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C63" t="s">
         <v>23</v>
@@ -3156,7 +3156,7 @@
         <v>341</v>
       </c>
       <c r="B64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C64" t="s">
         <v>23</v>
@@ -3182,7 +3182,7 @@
         <v>341</v>
       </c>
       <c r="B65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C65" t="s">
         <v>23</v>
@@ -3211,7 +3211,7 @@
         <v>341</v>
       </c>
       <c r="B66" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -3237,7 +3237,7 @@
         <v>341</v>
       </c>
       <c r="B67" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -3263,7 +3263,7 @@
         <v>341</v>
       </c>
       <c r="B68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -3289,7 +3289,7 @@
         <v>341</v>
       </c>
       <c r="B69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -3315,7 +3315,7 @@
         <v>341</v>
       </c>
       <c r="B70" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -3341,7 +3341,7 @@
         <v>341</v>
       </c>
       <c r="B71" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -3367,7 +3367,7 @@
         <v>341</v>
       </c>
       <c r="B72" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -3393,7 +3393,7 @@
         <v>341</v>
       </c>
       <c r="B73" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -3419,7 +3419,7 @@
         <v>341</v>
       </c>
       <c r="B74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -3445,7 +3445,7 @@
         <v>341</v>
       </c>
       <c r="B75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -3474,7 +3474,7 @@
         <v>341</v>
       </c>
       <c r="B76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -3500,7 +3500,7 @@
         <v>341</v>
       </c>
       <c r="B77" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -3529,7 +3529,7 @@
         <v>341</v>
       </c>
       <c r="B78" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -3555,7 +3555,7 @@
         <v>341</v>
       </c>
       <c r="B79" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -3584,7 +3584,7 @@
         <v>341</v>
       </c>
       <c r="B80" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -3610,7 +3610,7 @@
         <v>341</v>
       </c>
       <c r="B81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -3639,7 +3639,7 @@
         <v>341</v>
       </c>
       <c r="B82" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -3665,7 +3665,7 @@
         <v>341</v>
       </c>
       <c r="B83" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -3683,7 +3683,7 @@
         <v>8</v>
       </c>
       <c r="H83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -3691,7 +3691,7 @@
         <v>341</v>
       </c>
       <c r="B84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -3717,7 +3717,7 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -3743,7 +3743,7 @@
         <v>341</v>
       </c>
       <c r="B86" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -3769,7 +3769,7 @@
         <v>341</v>
       </c>
       <c r="B87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -3795,7 +3795,7 @@
         <v>341</v>
       </c>
       <c r="B88" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -3821,7 +3821,7 @@
         <v>341</v>
       </c>
       <c r="B89" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -3847,7 +3847,7 @@
         <v>341</v>
       </c>
       <c r="B90" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -3873,7 +3873,7 @@
         <v>341</v>
       </c>
       <c r="B91" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -3902,7 +3902,7 @@
         <v>341</v>
       </c>
       <c r="B92" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -3928,7 +3928,7 @@
         <v>341</v>
       </c>
       <c r="B93" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -3957,7 +3957,7 @@
         <v>341</v>
       </c>
       <c r="B94" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -3983,7 +3983,7 @@
         <v>341</v>
       </c>
       <c r="B95" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
@@ -4012,7 +4012,7 @@
         <v>341</v>
       </c>
       <c r="B96" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -4038,7 +4038,7 @@
         <v>341</v>
       </c>
       <c r="B97" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -4067,13 +4067,13 @@
         <v>341</v>
       </c>
       <c r="B98" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C98" t="s">
         <v>37</v>
       </c>
       <c r="D98" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E98" t="s">
         <v>335</v>
@@ -4093,13 +4093,13 @@
         <v>341</v>
       </c>
       <c r="B99" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C99" t="s">
         <v>37</v>
       </c>
       <c r="D99" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E99" t="s">
         <v>336</v>
@@ -4116,13 +4116,13 @@
         <v>341</v>
       </c>
       <c r="B100" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C100" t="s">
         <v>37</v>
       </c>
       <c r="D100" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E100" t="s">
         <v>337</v>
@@ -4142,13 +4142,13 @@
         <v>341</v>
       </c>
       <c r="B101" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C101" t="s">
         <v>37</v>
       </c>
       <c r="D101" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E101" t="s">
         <v>338</v>
@@ -4165,13 +4165,13 @@
         <v>341</v>
       </c>
       <c r="B102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C102" t="s">
         <v>37</v>
       </c>
       <c r="D102" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E102" t="s">
         <v>335</v>
@@ -4191,13 +4191,13 @@
         <v>341</v>
       </c>
       <c r="B103" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C103" t="s">
         <v>37</v>
       </c>
       <c r="D103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E103" t="s">
         <v>336</v>
@@ -4214,13 +4214,13 @@
         <v>341</v>
       </c>
       <c r="B104" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C104" t="s">
         <v>37</v>
       </c>
       <c r="D104" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E104" t="s">
         <v>337</v>
@@ -4240,13 +4240,13 @@
         <v>341</v>
       </c>
       <c r="B105" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C105" t="s">
         <v>37</v>
       </c>
       <c r="D105" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E105" t="s">
         <v>338</v>
@@ -4263,13 +4263,13 @@
         <v>341</v>
       </c>
       <c r="B106" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C106" t="s">
         <v>37</v>
       </c>
       <c r="D106" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E106" t="s">
         <v>335</v>
@@ -4286,13 +4286,13 @@
         <v>341</v>
       </c>
       <c r="B107" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C107" t="s">
         <v>37</v>
       </c>
       <c r="D107" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E107" t="s">
         <v>336</v>
@@ -4309,13 +4309,13 @@
         <v>341</v>
       </c>
       <c r="B108" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C108" t="s">
         <v>37</v>
       </c>
       <c r="D108" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E108" t="s">
         <v>337</v>
@@ -4332,13 +4332,13 @@
         <v>341</v>
       </c>
       <c r="B109" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C109" t="s">
         <v>37</v>
       </c>
       <c r="D109" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E109" t="s">
         <v>338</v>
@@ -4355,13 +4355,13 @@
         <v>341</v>
       </c>
       <c r="B110" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C110" t="s">
         <v>37</v>
       </c>
       <c r="D110" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E110" t="s">
         <v>335</v>
@@ -4378,13 +4378,13 @@
         <v>341</v>
       </c>
       <c r="B111" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C111" t="s">
         <v>37</v>
       </c>
       <c r="D111" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E111" t="s">
         <v>336</v>
@@ -4401,13 +4401,13 @@
         <v>341</v>
       </c>
       <c r="B112" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C112" t="s">
         <v>37</v>
       </c>
       <c r="D112" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E112" t="s">
         <v>337</v>
@@ -4424,13 +4424,13 @@
         <v>341</v>
       </c>
       <c r="B113" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C113" t="s">
         <v>37</v>
       </c>
       <c r="D113" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E113" t="s">
         <v>338</v>
@@ -4447,13 +4447,13 @@
         <v>341</v>
       </c>
       <c r="B114" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C114" t="s">
         <v>37</v>
       </c>
       <c r="D114" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E114" t="s">
         <v>335</v>
@@ -4470,13 +4470,13 @@
         <v>341</v>
       </c>
       <c r="B115" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C115" t="s">
         <v>37</v>
       </c>
       <c r="D115" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E115" t="s">
         <v>336</v>
@@ -4493,13 +4493,13 @@
         <v>341</v>
       </c>
       <c r="B116" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C116" t="s">
         <v>37</v>
       </c>
       <c r="D116" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E116" t="s">
         <v>337</v>
@@ -4516,13 +4516,13 @@
         <v>341</v>
       </c>
       <c r="B117" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C117" t="s">
         <v>37</v>
       </c>
       <c r="D117" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E117" t="s">
         <v>338</v>
@@ -4539,13 +4539,13 @@
         <v>341</v>
       </c>
       <c r="B118" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C118" t="s">
         <v>37</v>
       </c>
       <c r="D118" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E118" t="s">
         <v>335</v>
@@ -4562,13 +4562,13 @@
         <v>341</v>
       </c>
       <c r="B119" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C119" t="s">
         <v>37</v>
       </c>
       <c r="D119" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E119" t="s">
         <v>336</v>
@@ -4585,13 +4585,13 @@
         <v>341</v>
       </c>
       <c r="B120" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C120" t="s">
         <v>37</v>
       </c>
       <c r="D120" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E120" t="s">
         <v>337</v>
@@ -4608,13 +4608,13 @@
         <v>341</v>
       </c>
       <c r="B121" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C121" t="s">
         <v>37</v>
       </c>
       <c r="D121" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E121" t="s">
         <v>338</v>
@@ -4631,13 +4631,13 @@
         <v>341</v>
       </c>
       <c r="B122" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C122" t="s">
         <v>37</v>
       </c>
       <c r="D122" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E122" t="s">
         <v>335</v>
@@ -4654,13 +4654,13 @@
         <v>341</v>
       </c>
       <c r="B123" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C123" t="s">
         <v>37</v>
       </c>
       <c r="D123" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E123" t="s">
         <v>336</v>
@@ -4677,13 +4677,13 @@
         <v>341</v>
       </c>
       <c r="B124" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C124" t="s">
         <v>37</v>
       </c>
       <c r="D124" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E124" t="s">
         <v>337</v>
@@ -4700,13 +4700,13 @@
         <v>341</v>
       </c>
       <c r="B125" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C125" t="s">
         <v>37</v>
       </c>
       <c r="D125" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E125" t="s">
         <v>338</v>
@@ -4723,13 +4723,13 @@
         <v>341</v>
       </c>
       <c r="B126" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C126" t="s">
         <v>37</v>
       </c>
       <c r="D126" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E126" t="s">
         <v>335</v>
@@ -4746,13 +4746,13 @@
         <v>341</v>
       </c>
       <c r="B127" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C127" t="s">
         <v>37</v>
       </c>
       <c r="D127" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E127" t="s">
         <v>336</v>
@@ -4769,13 +4769,13 @@
         <v>341</v>
       </c>
       <c r="B128" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C128" t="s">
         <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E128" t="s">
         <v>337</v>
@@ -4792,13 +4792,13 @@
         <v>341</v>
       </c>
       <c r="B129" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C129" t="s">
         <v>37</v>
       </c>
       <c r="D129" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E129" t="s">
         <v>338</v>
@@ -4815,7 +4815,7 @@
         <v>341</v>
       </c>
       <c r="B130" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C130" t="s">
         <v>18</v>
@@ -4841,7 +4841,7 @@
         <v>341</v>
       </c>
       <c r="B131" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C131" t="s">
         <v>18</v>
@@ -4867,7 +4867,7 @@
         <v>341</v>
       </c>
       <c r="B132" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C132" t="s">
         <v>18</v>
@@ -4893,7 +4893,7 @@
         <v>341</v>
       </c>
       <c r="B133" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C133" t="s">
         <v>18</v>
@@ -4919,7 +4919,7 @@
         <v>341</v>
       </c>
       <c r="B134" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C134" t="s">
         <v>18</v>
@@ -4945,7 +4945,7 @@
         <v>341</v>
       </c>
       <c r="B135" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C135" t="s">
         <v>18</v>
@@ -4971,7 +4971,7 @@
         <v>341</v>
       </c>
       <c r="B136" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C136" t="s">
         <v>18</v>
@@ -4997,7 +4997,7 @@
         <v>341</v>
       </c>
       <c r="B137" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C137" t="s">
         <v>18</v>
@@ -5023,7 +5023,7 @@
         <v>341</v>
       </c>
       <c r="B138" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C138" t="s">
         <v>18</v>
@@ -5049,7 +5049,7 @@
         <v>341</v>
       </c>
       <c r="B139" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C139" t="s">
         <v>18</v>
@@ -5078,7 +5078,7 @@
         <v>341</v>
       </c>
       <c r="B140" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C140" t="s">
         <v>18</v>
@@ -5104,7 +5104,7 @@
         <v>341</v>
       </c>
       <c r="B141" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C141" t="s">
         <v>18</v>
@@ -5133,7 +5133,7 @@
         <v>341</v>
       </c>
       <c r="B142" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C142" t="s">
         <v>18</v>
@@ -5159,7 +5159,7 @@
         <v>341</v>
       </c>
       <c r="B143" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C143" t="s">
         <v>18</v>
@@ -5188,7 +5188,7 @@
         <v>341</v>
       </c>
       <c r="B144" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C144" t="s">
         <v>18</v>
@@ -5214,7 +5214,7 @@
         <v>341</v>
       </c>
       <c r="B145" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C145" t="s">
         <v>18</v>
@@ -5235,7 +5235,7 @@
         <v>122</v>
       </c>
       <c r="I145" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -5243,7 +5243,7 @@
         <v>341</v>
       </c>
       <c r="B146" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C146" t="s">
         <v>18</v>
@@ -5269,7 +5269,7 @@
         <v>341</v>
       </c>
       <c r="B147" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C147" t="s">
         <v>18</v>
@@ -5295,7 +5295,7 @@
         <v>341</v>
       </c>
       <c r="B148" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C148" t="s">
         <v>18</v>
@@ -5321,7 +5321,7 @@
         <v>341</v>
       </c>
       <c r="B149" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C149" t="s">
         <v>18</v>
@@ -5347,7 +5347,7 @@
         <v>341</v>
       </c>
       <c r="B150" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C150" t="s">
         <v>18</v>
@@ -5373,7 +5373,7 @@
         <v>341</v>
       </c>
       <c r="B151" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C151" t="s">
         <v>18</v>
@@ -5399,7 +5399,7 @@
         <v>341</v>
       </c>
       <c r="B152" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C152" t="s">
         <v>18</v>
@@ -5425,7 +5425,7 @@
         <v>341</v>
       </c>
       <c r="B153" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C153" t="s">
         <v>18</v>
@@ -5451,7 +5451,7 @@
         <v>341</v>
       </c>
       <c r="B154" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C154" t="s">
         <v>18</v>
@@ -5477,7 +5477,7 @@
         <v>341</v>
       </c>
       <c r="B155" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C155" t="s">
         <v>18</v>
@@ -5506,7 +5506,7 @@
         <v>341</v>
       </c>
       <c r="B156" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C156" t="s">
         <v>18</v>
@@ -5532,7 +5532,7 @@
         <v>341</v>
       </c>
       <c r="B157" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C157" t="s">
         <v>18</v>
@@ -5561,7 +5561,7 @@
         <v>341</v>
       </c>
       <c r="B158" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C158" t="s">
         <v>18</v>
@@ -5587,7 +5587,7 @@
         <v>341</v>
       </c>
       <c r="B159" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C159" t="s">
         <v>18</v>
@@ -5616,7 +5616,7 @@
         <v>341</v>
       </c>
       <c r="B160" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C160" t="s">
         <v>18</v>
@@ -5642,7 +5642,7 @@
         <v>341</v>
       </c>
       <c r="B161" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C161" t="s">
         <v>18</v>
@@ -5671,7 +5671,7 @@
         <v>341</v>
       </c>
       <c r="B162" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -5697,7 +5697,7 @@
         <v>341</v>
       </c>
       <c r="B163" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -5715,7 +5715,7 @@
         <v>8</v>
       </c>
       <c r="H163" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -5723,7 +5723,7 @@
         <v>341</v>
       </c>
       <c r="B164" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -5749,7 +5749,7 @@
         <v>341</v>
       </c>
       <c r="B165" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -5775,7 +5775,7 @@
         <v>341</v>
       </c>
       <c r="B166" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -5801,7 +5801,7 @@
         <v>341</v>
       </c>
       <c r="B167" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -5827,7 +5827,7 @@
         <v>341</v>
       </c>
       <c r="B168" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -5853,7 +5853,7 @@
         <v>341</v>
       </c>
       <c r="B169" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -5879,7 +5879,7 @@
         <v>341</v>
       </c>
       <c r="B170" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -5905,7 +5905,7 @@
         <v>341</v>
       </c>
       <c r="B171" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -5934,7 +5934,7 @@
         <v>341</v>
       </c>
       <c r="B172" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -5960,7 +5960,7 @@
         <v>341</v>
       </c>
       <c r="B173" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -5989,7 +5989,7 @@
         <v>341</v>
       </c>
       <c r="B174" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -6015,7 +6015,7 @@
         <v>341</v>
       </c>
       <c r="B175" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -6036,7 +6036,7 @@
         <v>129</v>
       </c>
       <c r="I175" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -6044,7 +6044,7 @@
         <v>341</v>
       </c>
       <c r="B176" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -6070,7 +6070,7 @@
         <v>341</v>
       </c>
       <c r="B177" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -6091,7 +6091,7 @@
         <v>131</v>
       </c>
       <c r="I177" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -6099,7 +6099,7 @@
         <v>341</v>
       </c>
       <c r="B178" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -6125,7 +6125,7 @@
         <v>341</v>
       </c>
       <c r="B179" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -6151,7 +6151,7 @@
         <v>341</v>
       </c>
       <c r="B180" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -6177,7 +6177,7 @@
         <v>341</v>
       </c>
       <c r="B181" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -6203,7 +6203,7 @@
         <v>341</v>
       </c>
       <c r="B182" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -6229,7 +6229,7 @@
         <v>341</v>
       </c>
       <c r="B183" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -6255,7 +6255,7 @@
         <v>341</v>
       </c>
       <c r="B184" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -6281,7 +6281,7 @@
         <v>341</v>
       </c>
       <c r="B185" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -6307,7 +6307,7 @@
         <v>341</v>
       </c>
       <c r="B186" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -6333,7 +6333,7 @@
         <v>341</v>
       </c>
       <c r="B187" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -6362,7 +6362,7 @@
         <v>341</v>
       </c>
       <c r="B188" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -6388,7 +6388,7 @@
         <v>341</v>
       </c>
       <c r="B189" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -6417,7 +6417,7 @@
         <v>341</v>
       </c>
       <c r="B190" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -6443,7 +6443,7 @@
         <v>341</v>
       </c>
       <c r="B191" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -6472,7 +6472,7 @@
         <v>341</v>
       </c>
       <c r="B192" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -6498,7 +6498,7 @@
         <v>341</v>
       </c>
       <c r="B193" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -6527,7 +6527,7 @@
         <v>341</v>
       </c>
       <c r="B194" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C194" t="s">
         <v>32</v>
@@ -6553,7 +6553,7 @@
         <v>341</v>
       </c>
       <c r="B195" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C195" t="s">
         <v>32</v>
@@ -6579,7 +6579,7 @@
         <v>341</v>
       </c>
       <c r="B196" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C196" t="s">
         <v>32</v>
@@ -6605,7 +6605,7 @@
         <v>341</v>
       </c>
       <c r="B197" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C197" t="s">
         <v>32</v>
@@ -6631,7 +6631,7 @@
         <v>341</v>
       </c>
       <c r="B198" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C198" t="s">
         <v>32</v>
@@ -6657,7 +6657,7 @@
         <v>341</v>
       </c>
       <c r="B199" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C199" t="s">
         <v>32</v>
@@ -6683,7 +6683,7 @@
         <v>341</v>
       </c>
       <c r="B200" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C200" t="s">
         <v>32</v>
@@ -6709,7 +6709,7 @@
         <v>341</v>
       </c>
       <c r="B201" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C201" t="s">
         <v>32</v>
@@ -6735,7 +6735,7 @@
         <v>341</v>
       </c>
       <c r="B202" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C202" t="s">
         <v>32</v>
@@ -6761,7 +6761,7 @@
         <v>341</v>
       </c>
       <c r="B203" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C203" t="s">
         <v>32</v>
@@ -6790,7 +6790,7 @@
         <v>341</v>
       </c>
       <c r="B204" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C204" t="s">
         <v>32</v>
@@ -6816,7 +6816,7 @@
         <v>341</v>
       </c>
       <c r="B205" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C205" t="s">
         <v>32</v>
@@ -6845,7 +6845,7 @@
         <v>341</v>
       </c>
       <c r="B206" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C206" t="s">
         <v>32</v>
@@ -6871,7 +6871,7 @@
         <v>341</v>
       </c>
       <c r="B207" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C207" t="s">
         <v>32</v>
@@ -6900,7 +6900,7 @@
         <v>341</v>
       </c>
       <c r="B208" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C208" t="s">
         <v>32</v>
@@ -6926,7 +6926,7 @@
         <v>341</v>
       </c>
       <c r="B209" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C209" t="s">
         <v>32</v>
@@ -6955,7 +6955,7 @@
         <v>341</v>
       </c>
       <c r="B210" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C210" t="s">
         <v>32</v>
@@ -6981,7 +6981,7 @@
         <v>341</v>
       </c>
       <c r="B211" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C211" t="s">
         <v>32</v>
@@ -7007,7 +7007,7 @@
         <v>341</v>
       </c>
       <c r="B212" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C212" t="s">
         <v>32</v>
@@ -7033,7 +7033,7 @@
         <v>341</v>
       </c>
       <c r="B213" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C213" t="s">
         <v>32</v>
@@ -7059,7 +7059,7 @@
         <v>341</v>
       </c>
       <c r="B214" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C214" t="s">
         <v>32</v>
@@ -7085,7 +7085,7 @@
         <v>341</v>
       </c>
       <c r="B215" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C215" t="s">
         <v>32</v>
@@ -7111,7 +7111,7 @@
         <v>341</v>
       </c>
       <c r="B216" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C216" t="s">
         <v>32</v>
@@ -7137,7 +7137,7 @@
         <v>341</v>
       </c>
       <c r="B217" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C217" t="s">
         <v>32</v>
@@ -7163,7 +7163,7 @@
         <v>341</v>
       </c>
       <c r="B218" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C218" t="s">
         <v>32</v>
@@ -7189,7 +7189,7 @@
         <v>341</v>
       </c>
       <c r="B219" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C219" t="s">
         <v>32</v>
@@ -7218,7 +7218,7 @@
         <v>341</v>
       </c>
       <c r="B220" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C220" t="s">
         <v>32</v>
@@ -7244,7 +7244,7 @@
         <v>341</v>
       </c>
       <c r="B221" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C221" t="s">
         <v>32</v>
@@ -7273,7 +7273,7 @@
         <v>341</v>
       </c>
       <c r="B222" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C222" t="s">
         <v>32</v>
@@ -7299,7 +7299,7 @@
         <v>341</v>
       </c>
       <c r="B223" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C223" t="s">
         <v>32</v>
@@ -7328,7 +7328,7 @@
         <v>341</v>
       </c>
       <c r="B224" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C224" t="s">
         <v>32</v>
@@ -7354,7 +7354,7 @@
         <v>341</v>
       </c>
       <c r="B225" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C225" t="s">
         <v>32</v>
@@ -7383,13 +7383,13 @@
         <v>341</v>
       </c>
       <c r="B226" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C226" t="s">
         <v>40</v>
       </c>
       <c r="D226" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E226" t="s">
         <v>335</v>
@@ -7409,13 +7409,13 @@
         <v>341</v>
       </c>
       <c r="B227" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C227" t="s">
         <v>40</v>
       </c>
       <c r="D227" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E227" t="s">
         <v>336</v>
@@ -7435,13 +7435,13 @@
         <v>341</v>
       </c>
       <c r="B228" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C228" t="s">
         <v>40</v>
       </c>
       <c r="D228" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E228" t="s">
         <v>337</v>
@@ -7461,13 +7461,13 @@
         <v>341</v>
       </c>
       <c r="B229" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C229" t="s">
         <v>40</v>
       </c>
       <c r="D229" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E229" t="s">
         <v>338</v>
@@ -7487,13 +7487,13 @@
         <v>341</v>
       </c>
       <c r="B230" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C230" t="s">
         <v>40</v>
       </c>
       <c r="D230" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E230" t="s">
         <v>335</v>
@@ -7513,13 +7513,13 @@
         <v>341</v>
       </c>
       <c r="B231" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C231" t="s">
         <v>40</v>
       </c>
       <c r="D231" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E231" t="s">
         <v>336</v>
@@ -7539,13 +7539,13 @@
         <v>341</v>
       </c>
       <c r="B232" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C232" t="s">
         <v>40</v>
       </c>
       <c r="D232" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E232" t="s">
         <v>337</v>
@@ -7565,13 +7565,13 @@
         <v>341</v>
       </c>
       <c r="B233" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C233" t="s">
         <v>40</v>
       </c>
       <c r="D233" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E233" t="s">
         <v>338</v>
@@ -7591,13 +7591,13 @@
         <v>341</v>
       </c>
       <c r="B234" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C234" t="s">
         <v>40</v>
       </c>
       <c r="D234" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E234" t="s">
         <v>335</v>
@@ -7614,13 +7614,13 @@
         <v>341</v>
       </c>
       <c r="B235" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C235" t="s">
         <v>40</v>
       </c>
       <c r="D235" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E235" t="s">
         <v>336</v>
@@ -7637,13 +7637,13 @@
         <v>341</v>
       </c>
       <c r="B236" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C236" t="s">
         <v>40</v>
       </c>
       <c r="D236" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E236" t="s">
         <v>337</v>
@@ -7660,13 +7660,13 @@
         <v>341</v>
       </c>
       <c r="B237" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C237" t="s">
         <v>40</v>
       </c>
       <c r="D237" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E237" t="s">
         <v>338</v>
@@ -7683,13 +7683,13 @@
         <v>341</v>
       </c>
       <c r="B238" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C238" t="s">
         <v>40</v>
       </c>
       <c r="D238" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E238" t="s">
         <v>335</v>
@@ -7706,13 +7706,13 @@
         <v>341</v>
       </c>
       <c r="B239" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C239" t="s">
         <v>40</v>
       </c>
       <c r="D239" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E239" t="s">
         <v>336</v>
@@ -7729,13 +7729,13 @@
         <v>341</v>
       </c>
       <c r="B240" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C240" t="s">
         <v>40</v>
       </c>
       <c r="D240" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E240" t="s">
         <v>337</v>
@@ -7752,13 +7752,13 @@
         <v>341</v>
       </c>
       <c r="B241" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C241" t="s">
         <v>40</v>
       </c>
       <c r="D241" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E241" t="s">
         <v>338</v>
@@ -7775,13 +7775,13 @@
         <v>341</v>
       </c>
       <c r="B242" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C242" t="s">
         <v>40</v>
       </c>
       <c r="D242" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E242" t="s">
         <v>335</v>
@@ -7798,13 +7798,13 @@
         <v>341</v>
       </c>
       <c r="B243" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C243" t="s">
         <v>40</v>
       </c>
       <c r="D243" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E243" t="s">
         <v>336</v>
@@ -7821,13 +7821,13 @@
         <v>341</v>
       </c>
       <c r="B244" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C244" t="s">
         <v>40</v>
       </c>
       <c r="D244" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E244" t="s">
         <v>337</v>
@@ -7844,13 +7844,13 @@
         <v>341</v>
       </c>
       <c r="B245" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C245" t="s">
         <v>40</v>
       </c>
       <c r="D245" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E245" t="s">
         <v>338</v>
@@ -7867,13 +7867,13 @@
         <v>341</v>
       </c>
       <c r="B246" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C246" t="s">
         <v>40</v>
       </c>
       <c r="D246" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E246" t="s">
         <v>335</v>
@@ -7890,13 +7890,13 @@
         <v>341</v>
       </c>
       <c r="B247" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C247" t="s">
         <v>40</v>
       </c>
       <c r="D247" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E247" t="s">
         <v>336</v>
@@ -7913,13 +7913,13 @@
         <v>341</v>
       </c>
       <c r="B248" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C248" t="s">
         <v>40</v>
       </c>
       <c r="D248" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E248" t="s">
         <v>337</v>
@@ -7936,13 +7936,13 @@
         <v>341</v>
       </c>
       <c r="B249" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C249" t="s">
         <v>40</v>
       </c>
       <c r="D249" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E249" t="s">
         <v>338</v>
@@ -7959,13 +7959,13 @@
         <v>341</v>
       </c>
       <c r="B250" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C250" t="s">
         <v>40</v>
       </c>
       <c r="D250" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E250" t="s">
         <v>335</v>
@@ -7982,13 +7982,13 @@
         <v>341</v>
       </c>
       <c r="B251" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C251" t="s">
         <v>40</v>
       </c>
       <c r="D251" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E251" t="s">
         <v>336</v>
@@ -8005,13 +8005,13 @@
         <v>341</v>
       </c>
       <c r="B252" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C252" t="s">
         <v>40</v>
       </c>
       <c r="D252" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E252" t="s">
         <v>337</v>
@@ -8028,13 +8028,13 @@
         <v>341</v>
       </c>
       <c r="B253" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C253" t="s">
         <v>40</v>
       </c>
       <c r="D253" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E253" t="s">
         <v>338</v>
@@ -8051,13 +8051,13 @@
         <v>341</v>
       </c>
       <c r="B254" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C254" t="s">
         <v>40</v>
       </c>
       <c r="D254" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E254" t="s">
         <v>335</v>
@@ -8074,13 +8074,13 @@
         <v>341</v>
       </c>
       <c r="B255" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C255" t="s">
         <v>40</v>
       </c>
       <c r="D255" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E255" t="s">
         <v>336</v>
@@ -8097,13 +8097,13 @@
         <v>341</v>
       </c>
       <c r="B256" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C256" t="s">
         <v>40</v>
       </c>
       <c r="D256" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E256" t="s">
         <v>337</v>
@@ -8120,13 +8120,13 @@
         <v>341</v>
       </c>
       <c r="B257" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C257" t="s">
         <v>40</v>
       </c>
       <c r="D257" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E257" t="s">
         <v>338</v>
@@ -8152,7 +8152,7 @@
   <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8176,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -8202,7 +8202,7 @@
         <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -8228,7 +8228,7 @@
         <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -8254,7 +8254,7 @@
         <v>341</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -8280,7 +8280,7 @@
         <v>341</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -8306,7 +8306,7 @@
         <v>341</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -8332,7 +8332,7 @@
         <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -8358,7 +8358,7 @@
         <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -8384,7 +8384,7 @@
         <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -8410,7 +8410,7 @@
         <v>341</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -8436,7 +8436,7 @@
         <v>341</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -8462,7 +8462,7 @@
         <v>341</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -8488,7 +8488,7 @@
         <v>341</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -8514,7 +8514,7 @@
         <v>341</v>
       </c>
       <c r="B14" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -8540,7 +8540,7 @@
         <v>341</v>
       </c>
       <c r="B15" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -8566,7 +8566,7 @@
         <v>341</v>
       </c>
       <c r="B16" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -8592,7 +8592,7 @@
         <v>341</v>
       </c>
       <c r="B17" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -8618,7 +8618,7 @@
         <v>341</v>
       </c>
       <c r="B18" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -8644,7 +8644,7 @@
         <v>341</v>
       </c>
       <c r="B19" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -8670,7 +8670,7 @@
         <v>341</v>
       </c>
       <c r="B20" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -8696,7 +8696,7 @@
         <v>341</v>
       </c>
       <c r="B21" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -8722,7 +8722,7 @@
         <v>341</v>
       </c>
       <c r="B22" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -8748,7 +8748,7 @@
         <v>341</v>
       </c>
       <c r="B23" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -8774,7 +8774,7 @@
         <v>341</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -8800,7 +8800,7 @@
         <v>341</v>
       </c>
       <c r="B25" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -8826,7 +8826,7 @@
         <v>341</v>
       </c>
       <c r="B26" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
@@ -8852,7 +8852,7 @@
         <v>341</v>
       </c>
       <c r="B27" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -8878,7 +8878,7 @@
         <v>341</v>
       </c>
       <c r="B28" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -8904,7 +8904,7 @@
         <v>341</v>
       </c>
       <c r="B29" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C29" t="s">
         <v>23</v>
@@ -8930,7 +8930,7 @@
         <v>341</v>
       </c>
       <c r="B30" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -8956,7 +8956,7 @@
         <v>341</v>
       </c>
       <c r="B31" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -8982,7 +8982,7 @@
         <v>341</v>
       </c>
       <c r="B32" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -9008,7 +9008,7 @@
         <v>341</v>
       </c>
       <c r="B33" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -9034,7 +9034,7 @@
         <v>341</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -9060,7 +9060,7 @@
         <v>341</v>
       </c>
       <c r="B35" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -9086,7 +9086,7 @@
         <v>341</v>
       </c>
       <c r="B36" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -9112,7 +9112,7 @@
         <v>341</v>
       </c>
       <c r="B37" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -9138,7 +9138,7 @@
         <v>341</v>
       </c>
       <c r="B38" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -9164,7 +9164,7 @@
         <v>341</v>
       </c>
       <c r="B39" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -9190,7 +9190,7 @@
         <v>341</v>
       </c>
       <c r="B40" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -9216,7 +9216,7 @@
         <v>341</v>
       </c>
       <c r="B41" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -9242,7 +9242,7 @@
         <v>341</v>
       </c>
       <c r="B42" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -9268,7 +9268,7 @@
         <v>341</v>
       </c>
       <c r="B43" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -9294,7 +9294,7 @@
         <v>341</v>
       </c>
       <c r="B44" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -9317,7 +9317,7 @@
         <v>341</v>
       </c>
       <c r="B45" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -9340,7 +9340,7 @@
         <v>341</v>
       </c>
       <c r="B46" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -9366,7 +9366,7 @@
         <v>341</v>
       </c>
       <c r="B47" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -9392,7 +9392,7 @@
         <v>341</v>
       </c>
       <c r="B48" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -9418,7 +9418,7 @@
         <v>341</v>
       </c>
       <c r="B49" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -9444,13 +9444,13 @@
         <v>341</v>
       </c>
       <c r="B50" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C50" t="s">
         <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E50" t="s">
         <v>333</v>
@@ -9470,13 +9470,13 @@
         <v>341</v>
       </c>
       <c r="B51" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E51" t="s">
         <v>334</v>
@@ -9493,13 +9493,13 @@
         <v>341</v>
       </c>
       <c r="B52" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E52" t="s">
         <v>333</v>
@@ -9519,13 +9519,13 @@
         <v>341</v>
       </c>
       <c r="B53" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E53" t="s">
         <v>334</v>
@@ -9542,13 +9542,13 @@
         <v>341</v>
       </c>
       <c r="B54" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E54" t="s">
         <v>333</v>
@@ -9565,13 +9565,13 @@
         <v>341</v>
       </c>
       <c r="B55" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C55" t="s">
         <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E55" t="s">
         <v>334</v>
@@ -9588,13 +9588,13 @@
         <v>341</v>
       </c>
       <c r="B56" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E56" t="s">
         <v>333</v>
@@ -9611,13 +9611,13 @@
         <v>341</v>
       </c>
       <c r="B57" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E57" t="s">
         <v>334</v>
@@ -9634,13 +9634,13 @@
         <v>341</v>
       </c>
       <c r="B58" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E58" t="s">
         <v>333</v>
@@ -9657,13 +9657,13 @@
         <v>341</v>
       </c>
       <c r="B59" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E59" t="s">
         <v>334</v>
@@ -9680,13 +9680,13 @@
         <v>341</v>
       </c>
       <c r="B60" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C60" t="s">
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E60" t="s">
         <v>333</v>
@@ -9703,13 +9703,13 @@
         <v>341</v>
       </c>
       <c r="B61" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C61" t="s">
         <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E61" t="s">
         <v>334</v>
@@ -9726,13 +9726,13 @@
         <v>341</v>
       </c>
       <c r="B62" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C62" t="s">
         <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E62" t="s">
         <v>333</v>
@@ -9749,13 +9749,13 @@
         <v>341</v>
       </c>
       <c r="B63" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C63" t="s">
         <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E63" t="s">
         <v>334</v>
@@ -9772,13 +9772,13 @@
         <v>341</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C64" t="s">
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E64" t="s">
         <v>333</v>
@@ -9795,13 +9795,13 @@
         <v>341</v>
       </c>
       <c r="B65" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E65" t="s">
         <v>334</v>
@@ -9818,7 +9818,7 @@
         <v>341</v>
       </c>
       <c r="B66" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
@@ -9844,7 +9844,7 @@
         <v>341</v>
       </c>
       <c r="B67" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
@@ -9870,7 +9870,7 @@
         <v>341</v>
       </c>
       <c r="B68" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -9896,7 +9896,7 @@
         <v>341</v>
       </c>
       <c r="B69" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
@@ -9922,7 +9922,7 @@
         <v>341</v>
       </c>
       <c r="B70" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -9948,7 +9948,7 @@
         <v>341</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -9974,7 +9974,7 @@
         <v>341</v>
       </c>
       <c r="B72" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -10000,7 +10000,7 @@
         <v>341</v>
       </c>
       <c r="B73" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -10026,7 +10026,7 @@
         <v>341</v>
       </c>
       <c r="B74" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
@@ -10052,7 +10052,7 @@
         <v>341</v>
       </c>
       <c r="B75" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
@@ -10078,7 +10078,7 @@
         <v>341</v>
       </c>
       <c r="B76" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
@@ -10104,7 +10104,7 @@
         <v>341</v>
       </c>
       <c r="B77" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
@@ -10130,7 +10130,7 @@
         <v>341</v>
       </c>
       <c r="B78" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
@@ -10156,7 +10156,7 @@
         <v>341</v>
       </c>
       <c r="B79" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -10182,7 +10182,7 @@
         <v>341</v>
       </c>
       <c r="B80" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
@@ -10208,7 +10208,7 @@
         <v>341</v>
       </c>
       <c r="B81" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -10234,7 +10234,7 @@
         <v>341</v>
       </c>
       <c r="B82" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -10260,7 +10260,7 @@
         <v>341</v>
       </c>
       <c r="B83" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -10286,7 +10286,7 @@
         <v>341</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -10312,7 +10312,7 @@
         <v>341</v>
       </c>
       <c r="B85" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -10338,7 +10338,7 @@
         <v>341</v>
       </c>
       <c r="B86" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -10364,7 +10364,7 @@
         <v>341</v>
       </c>
       <c r="B87" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -10390,7 +10390,7 @@
         <v>341</v>
       </c>
       <c r="B88" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -10416,7 +10416,7 @@
         <v>341</v>
       </c>
       <c r="B89" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -10442,7 +10442,7 @@
         <v>341</v>
       </c>
       <c r="B90" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -10468,7 +10468,7 @@
         <v>341</v>
       </c>
       <c r="B91" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -10494,7 +10494,7 @@
         <v>341</v>
       </c>
       <c r="B92" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -10520,7 +10520,7 @@
         <v>341</v>
       </c>
       <c r="B93" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -10546,7 +10546,7 @@
         <v>341</v>
       </c>
       <c r="B94" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -10572,7 +10572,7 @@
         <v>341</v>
       </c>
       <c r="B95" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -10598,7 +10598,7 @@
         <v>341</v>
       </c>
       <c r="B96" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -10624,7 +10624,7 @@
         <v>341</v>
       </c>
       <c r="B97" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -10650,7 +10650,7 @@
         <v>341</v>
       </c>
       <c r="B98" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C98" t="s">
         <v>32</v>
@@ -10676,7 +10676,7 @@
         <v>341</v>
       </c>
       <c r="B99" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C99" t="s">
         <v>32</v>
@@ -10702,7 +10702,7 @@
         <v>341</v>
       </c>
       <c r="B100" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C100" t="s">
         <v>32</v>
@@ -10728,7 +10728,7 @@
         <v>341</v>
       </c>
       <c r="B101" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C101" t="s">
         <v>32</v>
@@ -10754,7 +10754,7 @@
         <v>341</v>
       </c>
       <c r="B102" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C102" t="s">
         <v>32</v>
@@ -10780,7 +10780,7 @@
         <v>341</v>
       </c>
       <c r="B103" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C103" t="s">
         <v>32</v>
@@ -10806,7 +10806,7 @@
         <v>341</v>
       </c>
       <c r="B104" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C104" t="s">
         <v>32</v>
@@ -10832,7 +10832,7 @@
         <v>341</v>
       </c>
       <c r="B105" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C105" t="s">
         <v>32</v>
@@ -10858,7 +10858,7 @@
         <v>341</v>
       </c>
       <c r="B106" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C106" t="s">
         <v>32</v>
@@ -10884,7 +10884,7 @@
         <v>341</v>
       </c>
       <c r="B107" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C107" t="s">
         <v>32</v>
@@ -10910,7 +10910,7 @@
         <v>341</v>
       </c>
       <c r="B108" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C108" t="s">
         <v>32</v>
@@ -10936,7 +10936,7 @@
         <v>341</v>
       </c>
       <c r="B109" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C109" t="s">
         <v>32</v>
@@ -10962,7 +10962,7 @@
         <v>341</v>
       </c>
       <c r="B110" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C110" t="s">
         <v>32</v>
@@ -10988,7 +10988,7 @@
         <v>341</v>
       </c>
       <c r="B111" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C111" t="s">
         <v>32</v>
@@ -11014,7 +11014,7 @@
         <v>341</v>
       </c>
       <c r="B112" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C112" t="s">
         <v>32</v>
@@ -11040,7 +11040,7 @@
         <v>341</v>
       </c>
       <c r="B113" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C113" t="s">
         <v>32</v>
@@ -11066,13 +11066,13 @@
         <v>341</v>
       </c>
       <c r="B114" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C114" t="s">
         <v>40</v>
       </c>
       <c r="D114" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E114" t="s">
         <v>333</v>
@@ -11092,13 +11092,13 @@
         <v>341</v>
       </c>
       <c r="B115" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C115" t="s">
         <v>40</v>
       </c>
       <c r="D115" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E115" t="s">
         <v>334</v>
@@ -11115,13 +11115,13 @@
         <v>341</v>
       </c>
       <c r="B116" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C116" t="s">
         <v>40</v>
       </c>
       <c r="D116" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E116" t="s">
         <v>333</v>
@@ -11141,13 +11141,13 @@
         <v>341</v>
       </c>
       <c r="B117" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C117" t="s">
         <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E117" t="s">
         <v>334</v>
@@ -11164,13 +11164,13 @@
         <v>341</v>
       </c>
       <c r="B118" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C118" t="s">
         <v>40</v>
       </c>
       <c r="D118" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E118" t="s">
         <v>333</v>
@@ -11187,13 +11187,13 @@
         <v>341</v>
       </c>
       <c r="B119" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C119" t="s">
         <v>40</v>
       </c>
       <c r="D119" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E119" t="s">
         <v>334</v>
@@ -11210,13 +11210,13 @@
         <v>341</v>
       </c>
       <c r="B120" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C120" t="s">
         <v>40</v>
       </c>
       <c r="D120" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E120" t="s">
         <v>333</v>
@@ -11233,13 +11233,13 @@
         <v>341</v>
       </c>
       <c r="B121" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C121" t="s">
         <v>40</v>
       </c>
       <c r="D121" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E121" t="s">
         <v>334</v>
@@ -11256,13 +11256,13 @@
         <v>341</v>
       </c>
       <c r="B122" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C122" t="s">
         <v>40</v>
       </c>
       <c r="D122" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E122" t="s">
         <v>333</v>
@@ -11279,13 +11279,13 @@
         <v>341</v>
       </c>
       <c r="B123" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C123" t="s">
         <v>40</v>
       </c>
       <c r="D123" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E123" t="s">
         <v>334</v>
@@ -11302,13 +11302,13 @@
         <v>341</v>
       </c>
       <c r="B124" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C124" t="s">
         <v>40</v>
       </c>
       <c r="D124" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E124" t="s">
         <v>333</v>
@@ -11325,13 +11325,13 @@
         <v>341</v>
       </c>
       <c r="B125" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C125" t="s">
         <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E125" t="s">
         <v>334</v>
@@ -11348,13 +11348,13 @@
         <v>341</v>
       </c>
       <c r="B126" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C126" t="s">
         <v>40</v>
       </c>
       <c r="D126" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E126" t="s">
         <v>333</v>
@@ -11371,13 +11371,13 @@
         <v>341</v>
       </c>
       <c r="B127" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C127" t="s">
         <v>40</v>
       </c>
       <c r="D127" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E127" t="s">
         <v>334</v>
@@ -11394,13 +11394,13 @@
         <v>341</v>
       </c>
       <c r="B128" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C128" t="s">
         <v>40</v>
       </c>
       <c r="D128" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E128" t="s">
         <v>333</v>
@@ -11417,13 +11417,13 @@
         <v>341</v>
       </c>
       <c r="B129" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C129" t="s">
         <v>40</v>
       </c>
       <c r="D129" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E129" t="s">
         <v>334</v>
@@ -11444,21 +11444,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EDA4FEBE11D32545B6C4D443ADFB229A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fa29c2c3225ad03fb09b8df90fa91a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b103a3be-6c61-44b0-93c5-2b779aa38a01" xmlns:ns3="56612388-9f28-4625-93a0-6879c02082d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c16c82533632c11d7fcceef7f9e9ea5" ns2:_="" ns3:_="">
     <xsd:import namespace="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
@@ -11623,32 +11608,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CFA308-43F1-499A-8049-AAB3DA408682}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="56612388-9f28-4625-93a0-6879c02082d6"/>
-    <ds:schemaRef ds:uri="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A50646E-DC1C-4D16-AC23-4B244D7154EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CADB2AF-8FF4-4CD3-86AB-7AA08F493F37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11665,4 +11640,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A50646E-DC1C-4D16-AC23-4B244D7154EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0CFA308-43F1-499A-8049-AAB3DA408682}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="56612388-9f28-4625-93a0-6879c02082d6"/>
+    <ds:schemaRef ds:uri="b103a3be-6c61-44b0-93c5-2b779aa38a01"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/createYaml/VII.xlsx
+++ b/createYaml/VII.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/Desktop/Current-Projects/ParserTools/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED0C3B9-6B5F-154E-8B9D-BE2353E0DAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C4818-5388-7C48-AFD9-0FE74B0B2671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="4080" windowWidth="23340" windowHeight="14860" activeTab="1" xr2:uid="{F60773C9-26C0-414F-936B-204C5C4D934C}"/>
+    <workbookView xWindow="-27320" yWindow="4080" windowWidth="23340" windowHeight="14860" xr2:uid="{F60773C9-26C0-414F-936B-204C5C4D934C}"/>
   </bookViews>
   <sheets>
     <sheet name="VII_IND" sheetId="1" r:id="rId1"/>
@@ -1452,7 +1452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA193F61-3C0D-9941-81CC-6F6AD6C92B40}">
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView topLeftCell="A251" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -8151,7 +8151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10602B5-8061-9841-B1CF-59F4D777D95C}">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+    <sheetView zoomScale="141" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/createYaml/VII.xlsx
+++ b/createYaml/VII.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/Desktop/Current-Projects/ParserTools/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C4818-5388-7C48-AFD9-0FE74B0B2671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB0CC3-2C53-1243-9F15-3025606F823F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27320" yWindow="4080" windowWidth="23340" windowHeight="14860" xr2:uid="{F60773C9-26C0-414F-936B-204C5C4D934C}"/>
   </bookViews>
@@ -1452,7 +1452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA193F61-3C0D-9941-81CC-6F6AD6C92B40}">
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/createYaml/VII.xlsx
+++ b/createYaml/VII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherhammerly/Desktop/Current-Projects/ParserTools/createYaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB0CC3-2C53-1243-9F15-3025606F823F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2299772-7EAE-9540-8E4E-6DC4E372CD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="4080" windowWidth="23340" windowHeight="14860" xr2:uid="{F60773C9-26C0-414F-936B-204C5C4D934C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{F60773C9-26C0-414F-936B-204C5C4D934C}"/>
   </bookViews>
   <sheets>
     <sheet name="VII_IND" sheetId="1" r:id="rId1"/>
@@ -1077,22 +1077,22 @@
     <t>Cnj</t>
   </si>
   <si>
-    <t>Neut</t>
-  </si>
-  <si>
-    <t>Pret</t>
-  </si>
-  <si>
     <t>Dub</t>
   </si>
   <si>
-    <t>PretDub</t>
-  </si>
-  <si>
     <t>Pos</t>
   </si>
   <si>
     <t>Neg</t>
+  </si>
+  <si>
+    <t>Neu</t>
+  </si>
+  <si>
+    <t>Prt</t>
+  </si>
+  <si>
+    <t>Prt+Dub</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1442,7 +1442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA193F61-3C0D-9941-81CC-6F6AD6C92B40}">
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A200" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1511,10 +1511,10 @@
         <v>329</v>
       </c>
       <c r="F2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -1537,10 +1537,10 @@
         <v>330</v>
       </c>
       <c r="F3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -1563,10 +1563,10 @@
         <v>331</v>
       </c>
       <c r="F4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -1589,10 +1589,10 @@
         <v>332</v>
       </c>
       <c r="F5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
@@ -1615,10 +1615,10 @@
         <v>329</v>
       </c>
       <c r="F6" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H6" t="s">
         <v>43</v>
@@ -1641,10 +1641,10 @@
         <v>330</v>
       </c>
       <c r="F7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H7" t="s">
         <v>43</v>
@@ -1667,10 +1667,10 @@
         <v>331</v>
       </c>
       <c r="F8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H8" t="s">
         <v>44</v>
@@ -1693,10 +1693,10 @@
         <v>332</v>
       </c>
       <c r="F9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H9" t="s">
         <v>45</v>
@@ -1719,10 +1719,10 @@
         <v>329</v>
       </c>
       <c r="F10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
@@ -1745,10 +1745,10 @@
         <v>330</v>
       </c>
       <c r="F11" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
         <v>67</v>
@@ -1774,10 +1774,10 @@
         <v>331</v>
       </c>
       <c r="F12" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G12" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H12" t="s">
         <v>69</v>
@@ -1800,10 +1800,10 @@
         <v>332</v>
       </c>
       <c r="F13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H13" t="s">
         <v>70</v>
@@ -1829,10 +1829,10 @@
         <v>329</v>
       </c>
       <c r="F14" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H14" t="s">
         <v>102</v>
@@ -1855,10 +1855,10 @@
         <v>330</v>
       </c>
       <c r="F15" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H15" t="s">
         <v>103</v>
@@ -1884,10 +1884,10 @@
         <v>331</v>
       </c>
       <c r="F16" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H16" t="s">
         <v>105</v>
@@ -1910,10 +1910,10 @@
         <v>332</v>
       </c>
       <c r="F17" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H17" t="s">
         <v>106</v>
@@ -1939,10 +1939,10 @@
         <v>329</v>
       </c>
       <c r="F18" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H18" t="s">
         <v>134</v>
@@ -1965,10 +1965,10 @@
         <v>330</v>
       </c>
       <c r="F19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H19" t="s">
         <v>135</v>
@@ -1991,10 +1991,10 @@
         <v>331</v>
       </c>
       <c r="F20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H20" t="s">
         <v>136</v>
@@ -2017,10 +2017,10 @@
         <v>332</v>
       </c>
       <c r="F21" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G21" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H21" t="s">
         <v>137</v>
@@ -2043,10 +2043,10 @@
         <v>329</v>
       </c>
       <c r="F22" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H22" t="s">
         <v>157</v>
@@ -2069,10 +2069,10 @@
         <v>330</v>
       </c>
       <c r="F23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G23" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H23" t="s">
         <v>158</v>
@@ -2095,10 +2095,10 @@
         <v>331</v>
       </c>
       <c r="F24" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G24" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H24" t="s">
         <v>159</v>
@@ -2121,10 +2121,10 @@
         <v>332</v>
       </c>
       <c r="F25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H25" t="s">
         <v>160</v>
@@ -2147,10 +2147,10 @@
         <v>329</v>
       </c>
       <c r="F26" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G26" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H26" t="s">
         <v>181</v>
@@ -2173,10 +2173,10 @@
         <v>330</v>
       </c>
       <c r="F27" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H27" t="s">
         <v>182</v>
@@ -2202,10 +2202,10 @@
         <v>331</v>
       </c>
       <c r="F28" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G28" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H28" t="s">
         <v>184</v>
@@ -2228,10 +2228,10 @@
         <v>332</v>
       </c>
       <c r="F29" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G29" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H29" t="s">
         <v>185</v>
@@ -2257,10 +2257,10 @@
         <v>329</v>
       </c>
       <c r="F30" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G30" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H30" t="s">
         <v>216</v>
@@ -2283,10 +2283,10 @@
         <v>330</v>
       </c>
       <c r="F31" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
@@ -2312,10 +2312,10 @@
         <v>331</v>
       </c>
       <c r="F32" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H32" t="s">
         <v>218</v>
@@ -2338,10 +2338,10 @@
         <v>332</v>
       </c>
       <c r="F33" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H33" t="s">
         <v>219</v>
@@ -2367,10 +2367,10 @@
         <v>329</v>
       </c>
       <c r="F34" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G34" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H34" t="s">
         <v>22</v>
@@ -2393,10 +2393,10 @@
         <v>330</v>
       </c>
       <c r="F35" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G35" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H35" t="s">
         <v>23</v>
@@ -2419,10 +2419,10 @@
         <v>331</v>
       </c>
       <c r="F36" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G36" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H36" t="s">
         <v>24</v>
@@ -2445,10 +2445,10 @@
         <v>332</v>
       </c>
       <c r="F37" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G37" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H37" t="s">
         <v>25</v>
@@ -2471,10 +2471,10 @@
         <v>329</v>
       </c>
       <c r="F38" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G38" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H38" t="s">
         <v>52</v>
@@ -2497,10 +2497,10 @@
         <v>330</v>
       </c>
       <c r="F39" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H39" t="s">
         <v>52</v>
@@ -2523,10 +2523,10 @@
         <v>331</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G40" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H40" t="s">
         <v>53</v>
@@ -2549,10 +2549,10 @@
         <v>332</v>
       </c>
       <c r="F41" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G41" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H41" t="s">
         <v>54</v>
@@ -2575,10 +2575,10 @@
         <v>329</v>
       </c>
       <c r="F42" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G42" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H42" t="s">
         <v>84</v>
@@ -2601,10 +2601,10 @@
         <v>330</v>
       </c>
       <c r="F43" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G43" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H43" t="s">
         <v>85</v>
@@ -2630,10 +2630,10 @@
         <v>331</v>
       </c>
       <c r="F44" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G44" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H44" t="s">
         <v>87</v>
@@ -2656,10 +2656,10 @@
         <v>332</v>
       </c>
       <c r="F45" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G45" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H45" t="s">
         <v>88</v>
@@ -2685,10 +2685,10 @@
         <v>329</v>
       </c>
       <c r="F46" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H46" t="s">
         <v>119</v>
@@ -2711,10 +2711,10 @@
         <v>330</v>
       </c>
       <c r="F47" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G47" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H47" t="s">
         <v>120</v>
@@ -2740,10 +2740,10 @@
         <v>331</v>
       </c>
       <c r="F48" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G48" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H48" t="s">
         <v>122</v>
@@ -2766,10 +2766,10 @@
         <v>332</v>
       </c>
       <c r="F49" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G49" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H49" t="s">
         <v>123</v>
@@ -2795,10 +2795,10 @@
         <v>329</v>
       </c>
       <c r="F50" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G50" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H50" t="s">
         <v>145</v>
@@ -2821,10 +2821,10 @@
         <v>330</v>
       </c>
       <c r="F51" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G51" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H51" t="s">
         <v>146</v>
@@ -2847,10 +2847,10 @@
         <v>331</v>
       </c>
       <c r="F52" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G52" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H52" t="s">
         <v>147</v>
@@ -2873,10 +2873,10 @@
         <v>332</v>
       </c>
       <c r="F53" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G53" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H53" t="s">
         <v>148</v>
@@ -2899,10 +2899,10 @@
         <v>329</v>
       </c>
       <c r="F54" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G54" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H54" t="s">
         <v>169</v>
@@ -2925,10 +2925,10 @@
         <v>330</v>
       </c>
       <c r="F55" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G55" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H55" t="s">
         <v>170</v>
@@ -2951,10 +2951,10 @@
         <v>331</v>
       </c>
       <c r="F56" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G56" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H56" t="s">
         <v>171</v>
@@ -2977,10 +2977,10 @@
         <v>332</v>
       </c>
       <c r="F57" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G57" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H57" t="s">
         <v>172</v>
@@ -3003,10 +3003,10 @@
         <v>329</v>
       </c>
       <c r="F58" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G58" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H58" t="s">
         <v>198</v>
@@ -3029,10 +3029,10 @@
         <v>330</v>
       </c>
       <c r="F59" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G59" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H59" t="s">
         <v>199</v>
@@ -3058,10 +3058,10 @@
         <v>331</v>
       </c>
       <c r="F60" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G60" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H60" t="s">
         <v>201</v>
@@ -3084,10 +3084,10 @@
         <v>332</v>
       </c>
       <c r="F61" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G61" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H61" t="s">
         <v>202</v>
@@ -3113,10 +3113,10 @@
         <v>329</v>
       </c>
       <c r="F62" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G62" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H62" t="s">
         <v>233</v>
@@ -3139,10 +3139,10 @@
         <v>330</v>
       </c>
       <c r="F63" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G63" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H63" t="s">
         <v>234</v>
@@ -3168,10 +3168,10 @@
         <v>331</v>
       </c>
       <c r="F64" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G64" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H64" t="s">
         <v>236</v>
@@ -3194,10 +3194,10 @@
         <v>332</v>
       </c>
       <c r="F65" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G65" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H65" t="s">
         <v>237</v>
@@ -3223,10 +3223,10 @@
         <v>329</v>
       </c>
       <c r="F66" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G66" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
@@ -3249,10 +3249,10 @@
         <v>330</v>
       </c>
       <c r="F67" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G67" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -3275,10 +3275,10 @@
         <v>331</v>
       </c>
       <c r="F68" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G68" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
@@ -3301,10 +3301,10 @@
         <v>332</v>
       </c>
       <c r="F69" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G69" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H69" t="s">
         <v>15</v>
@@ -3327,10 +3327,10 @@
         <v>329</v>
       </c>
       <c r="F70" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G70" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H70" t="s">
         <v>46</v>
@@ -3353,10 +3353,10 @@
         <v>330</v>
       </c>
       <c r="F71" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G71" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H71" t="s">
         <v>46</v>
@@ -3379,10 +3379,10 @@
         <v>331</v>
       </c>
       <c r="F72" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G72" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H72" t="s">
         <v>47</v>
@@ -3405,10 +3405,10 @@
         <v>332</v>
       </c>
       <c r="F73" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G73" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H73" t="s">
         <v>48</v>
@@ -3431,10 +3431,10 @@
         <v>329</v>
       </c>
       <c r="F74" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G74" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H74" t="s">
         <v>72</v>
@@ -3457,10 +3457,10 @@
         <v>330</v>
       </c>
       <c r="F75" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G75" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H75" t="s">
         <v>73</v>
@@ -3486,10 +3486,10 @@
         <v>331</v>
       </c>
       <c r="F76" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G76" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H76" t="s">
         <v>75</v>
@@ -3512,10 +3512,10 @@
         <v>332</v>
       </c>
       <c r="F77" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G77" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H77" t="s">
         <v>76</v>
@@ -3541,10 +3541,10 @@
         <v>329</v>
       </c>
       <c r="F78" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G78" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H78" t="s">
         <v>108</v>
@@ -3567,10 +3567,10 @@
         <v>330</v>
       </c>
       <c r="F79" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G79" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H79" t="s">
         <v>109</v>
@@ -3596,10 +3596,10 @@
         <v>331</v>
       </c>
       <c r="F80" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G80" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H80" t="s">
         <v>111</v>
@@ -3622,10 +3622,10 @@
         <v>332</v>
       </c>
       <c r="F81" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G81" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H81" t="s">
         <v>112</v>
@@ -3651,10 +3651,10 @@
         <v>329</v>
       </c>
       <c r="F82" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G82" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H82" t="s">
         <v>138</v>
@@ -3677,10 +3677,10 @@
         <v>330</v>
       </c>
       <c r="F83" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G83" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H83" t="s">
         <v>339</v>
@@ -3703,10 +3703,10 @@
         <v>331</v>
       </c>
       <c r="F84" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G84" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H84" t="s">
         <v>139</v>
@@ -3729,10 +3729,10 @@
         <v>332</v>
       </c>
       <c r="F85" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G85" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H85" t="s">
         <v>140</v>
@@ -3755,10 +3755,10 @@
         <v>329</v>
       </c>
       <c r="F86" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G86" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H86" t="s">
         <v>161</v>
@@ -3781,10 +3781,10 @@
         <v>330</v>
       </c>
       <c r="F87" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G87" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H87" t="s">
         <v>162</v>
@@ -3807,10 +3807,10 @@
         <v>331</v>
       </c>
       <c r="F88" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G88" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H88" t="s">
         <v>163</v>
@@ -3833,10 +3833,10 @@
         <v>332</v>
       </c>
       <c r="F89" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G89" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H89" t="s">
         <v>164</v>
@@ -3859,10 +3859,10 @@
         <v>329</v>
       </c>
       <c r="F90" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G90" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H90" t="s">
         <v>186</v>
@@ -3885,10 +3885,10 @@
         <v>330</v>
       </c>
       <c r="F91" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G91" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H91" t="s">
         <v>187</v>
@@ -3914,10 +3914,10 @@
         <v>331</v>
       </c>
       <c r="F92" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G92" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H92" t="s">
         <v>189</v>
@@ -3940,10 +3940,10 @@
         <v>332</v>
       </c>
       <c r="F93" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G93" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H93" t="s">
         <v>190</v>
@@ -3969,10 +3969,10 @@
         <v>329</v>
       </c>
       <c r="F94" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G94" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H94" t="s">
         <v>221</v>
@@ -3995,10 +3995,10 @@
         <v>330</v>
       </c>
       <c r="F95" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G95" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H95" t="s">
         <v>222</v>
@@ -4024,10 +4024,10 @@
         <v>331</v>
       </c>
       <c r="F96" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G96" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H96" t="s">
         <v>224</v>
@@ -4050,10 +4050,10 @@
         <v>332</v>
       </c>
       <c r="F97" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G97" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H97" t="s">
         <v>225</v>
@@ -4079,10 +4079,10 @@
         <v>329</v>
       </c>
       <c r="F98" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G98" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H98" t="s">
         <v>36</v>
@@ -4105,10 +4105,10 @@
         <v>330</v>
       </c>
       <c r="F99" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G99" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4128,10 +4128,10 @@
         <v>331</v>
       </c>
       <c r="F100" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G100" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H100" t="s">
         <v>37</v>
@@ -4154,10 +4154,10 @@
         <v>332</v>
       </c>
       <c r="F101" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G101" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -4177,10 +4177,10 @@
         <v>329</v>
       </c>
       <c r="F102" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G102" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H102" t="s">
         <v>61</v>
@@ -4203,10 +4203,10 @@
         <v>330</v>
       </c>
       <c r="F103" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G103" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -4226,10 +4226,10 @@
         <v>331</v>
       </c>
       <c r="F104" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G104" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H104" t="s">
         <v>62</v>
@@ -4252,10 +4252,10 @@
         <v>332</v>
       </c>
       <c r="F105" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G105" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4275,10 +4275,10 @@
         <v>329</v>
       </c>
       <c r="F106" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G106" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -4298,10 +4298,10 @@
         <v>330</v>
       </c>
       <c r="F107" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G107" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -4321,10 +4321,10 @@
         <v>331</v>
       </c>
       <c r="F108" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G108" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -4344,10 +4344,10 @@
         <v>332</v>
       </c>
       <c r="F109" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G109" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -4367,10 +4367,10 @@
         <v>329</v>
       </c>
       <c r="F110" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G110" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -4390,10 +4390,10 @@
         <v>330</v>
       </c>
       <c r="F111" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G111" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -4413,10 +4413,10 @@
         <v>331</v>
       </c>
       <c r="F112" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G112" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -4436,10 +4436,10 @@
         <v>332</v>
       </c>
       <c r="F113" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G113" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -4459,10 +4459,10 @@
         <v>329</v>
       </c>
       <c r="F114" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G114" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -4482,10 +4482,10 @@
         <v>330</v>
       </c>
       <c r="F115" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G115" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -4505,10 +4505,10 @@
         <v>331</v>
       </c>
       <c r="F116" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G116" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4528,10 +4528,10 @@
         <v>332</v>
       </c>
       <c r="F117" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G117" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -4551,10 +4551,10 @@
         <v>329</v>
       </c>
       <c r="F118" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G118" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -4574,10 +4574,10 @@
         <v>330</v>
       </c>
       <c r="F119" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G119" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -4597,10 +4597,10 @@
         <v>331</v>
       </c>
       <c r="F120" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G120" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -4620,10 +4620,10 @@
         <v>332</v>
       </c>
       <c r="F121" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G121" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -4643,10 +4643,10 @@
         <v>329</v>
       </c>
       <c r="F122" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G122" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -4666,10 +4666,10 @@
         <v>330</v>
       </c>
       <c r="F123" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G123" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -4689,10 +4689,10 @@
         <v>331</v>
       </c>
       <c r="F124" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G124" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -4712,10 +4712,10 @@
         <v>332</v>
       </c>
       <c r="F125" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G125" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -4735,10 +4735,10 @@
         <v>329</v>
       </c>
       <c r="F126" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G126" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -4758,10 +4758,10 @@
         <v>330</v>
       </c>
       <c r="F127" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G127" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -4781,10 +4781,10 @@
         <v>331</v>
       </c>
       <c r="F128" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G128" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -4804,10 +4804,10 @@
         <v>332</v>
       </c>
       <c r="F129" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G129" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -4827,10 +4827,10 @@
         <v>329</v>
       </c>
       <c r="F130" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G130" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H130" t="s">
         <v>17</v>
@@ -4853,10 +4853,10 @@
         <v>330</v>
       </c>
       <c r="F131" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G131" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H131" t="s">
         <v>18</v>
@@ -4879,10 +4879,10 @@
         <v>331</v>
       </c>
       <c r="F132" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G132" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H132" t="s">
         <v>19</v>
@@ -4905,10 +4905,10 @@
         <v>332</v>
       </c>
       <c r="F133" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G133" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H133" t="s">
         <v>20</v>
@@ -4931,10 +4931,10 @@
         <v>329</v>
       </c>
       <c r="F134" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G134" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H134" t="s">
         <v>49</v>
@@ -4957,10 +4957,10 @@
         <v>330</v>
       </c>
       <c r="F135" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G135" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H135" t="s">
         <v>49</v>
@@ -4983,10 +4983,10 @@
         <v>331</v>
       </c>
       <c r="F136" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G136" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H136" t="s">
         <v>50</v>
@@ -5009,10 +5009,10 @@
         <v>332</v>
       </c>
       <c r="F137" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G137" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H137" t="s">
         <v>51</v>
@@ -5035,10 +5035,10 @@
         <v>329</v>
       </c>
       <c r="F138" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G138" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H138" t="s">
         <v>78</v>
@@ -5061,10 +5061,10 @@
         <v>330</v>
       </c>
       <c r="F139" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G139" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H139" t="s">
         <v>79</v>
@@ -5090,10 +5090,10 @@
         <v>331</v>
       </c>
       <c r="F140" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G140" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H140" t="s">
         <v>81</v>
@@ -5116,10 +5116,10 @@
         <v>332</v>
       </c>
       <c r="F141" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G141" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H141" t="s">
         <v>82</v>
@@ -5145,10 +5145,10 @@
         <v>329</v>
       </c>
       <c r="F142" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G142" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H142" t="s">
         <v>114</v>
@@ -5171,10 +5171,10 @@
         <v>330</v>
       </c>
       <c r="F143" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G143" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H143" t="s">
         <v>115</v>
@@ -5200,10 +5200,10 @@
         <v>331</v>
       </c>
       <c r="F144" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G144" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H144" t="s">
         <v>117</v>
@@ -5226,10 +5226,10 @@
         <v>332</v>
       </c>
       <c r="F145" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G145" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H145" t="s">
         <v>118</v>
@@ -5255,10 +5255,10 @@
         <v>329</v>
       </c>
       <c r="F146" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G146" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H146" t="s">
         <v>141</v>
@@ -5281,10 +5281,10 @@
         <v>330</v>
       </c>
       <c r="F147" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G147" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H147" t="s">
         <v>142</v>
@@ -5307,10 +5307,10 @@
         <v>331</v>
       </c>
       <c r="F148" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G148" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H148" t="s">
         <v>143</v>
@@ -5333,10 +5333,10 @@
         <v>332</v>
       </c>
       <c r="F149" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G149" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H149" t="s">
         <v>144</v>
@@ -5359,10 +5359,10 @@
         <v>329</v>
       </c>
       <c r="F150" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G150" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H150" t="s">
         <v>165</v>
@@ -5385,10 +5385,10 @@
         <v>330</v>
       </c>
       <c r="F151" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G151" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H151" t="s">
         <v>166</v>
@@ -5411,10 +5411,10 @@
         <v>331</v>
       </c>
       <c r="F152" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G152" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H152" t="s">
         <v>167</v>
@@ -5437,10 +5437,10 @@
         <v>332</v>
       </c>
       <c r="F153" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G153" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H153" t="s">
         <v>168</v>
@@ -5463,10 +5463,10 @@
         <v>329</v>
       </c>
       <c r="F154" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G154" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H154" t="s">
         <v>192</v>
@@ -5489,10 +5489,10 @@
         <v>330</v>
       </c>
       <c r="F155" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G155" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H155" t="s">
         <v>193</v>
@@ -5518,10 +5518,10 @@
         <v>331</v>
       </c>
       <c r="F156" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G156" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H156" t="s">
         <v>195</v>
@@ -5544,10 +5544,10 @@
         <v>332</v>
       </c>
       <c r="F157" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G157" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H157" t="s">
         <v>196</v>
@@ -5573,10 +5573,10 @@
         <v>329</v>
       </c>
       <c r="F158" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G158" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H158" t="s">
         <v>227</v>
@@ -5599,10 +5599,10 @@
         <v>330</v>
       </c>
       <c r="F159" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G159" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H159" t="s">
         <v>228</v>
@@ -5628,10 +5628,10 @@
         <v>331</v>
       </c>
       <c r="F160" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G160" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H160" t="s">
         <v>230</v>
@@ -5654,10 +5654,10 @@
         <v>332</v>
       </c>
       <c r="F161" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G161" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H161" t="s">
         <v>231</v>
@@ -5683,10 +5683,10 @@
         <v>329</v>
       </c>
       <c r="F162" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G162" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H162" t="s">
         <v>27</v>
@@ -5709,10 +5709,10 @@
         <v>330</v>
       </c>
       <c r="F163" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G163" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H163" t="s">
         <v>342</v>
@@ -5735,10 +5735,10 @@
         <v>331</v>
       </c>
       <c r="F164" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G164" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H164" t="s">
         <v>28</v>
@@ -5761,10 +5761,10 @@
         <v>332</v>
       </c>
       <c r="F165" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G165" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H165" t="s">
         <v>29</v>
@@ -5787,10 +5787,10 @@
         <v>329</v>
       </c>
       <c r="F166" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G166" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H166" t="s">
         <v>55</v>
@@ -5813,10 +5813,10 @@
         <v>330</v>
       </c>
       <c r="F167" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G167" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H167" t="s">
         <v>55</v>
@@ -5839,10 +5839,10 @@
         <v>331</v>
       </c>
       <c r="F168" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G168" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H168" t="s">
         <v>56</v>
@@ -5865,10 +5865,10 @@
         <v>332</v>
       </c>
       <c r="F169" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G169" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H169" t="s">
         <v>57</v>
@@ -5891,10 +5891,10 @@
         <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G170" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H170" t="s">
         <v>90</v>
@@ -5917,10 +5917,10 @@
         <v>330</v>
       </c>
       <c r="F171" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G171" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H171" t="s">
         <v>91</v>
@@ -5946,10 +5946,10 @@
         <v>331</v>
       </c>
       <c r="F172" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G172" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H172" t="s">
         <v>93</v>
@@ -5972,10 +5972,10 @@
         <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G173" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H173" t="s">
         <v>94</v>
@@ -6001,10 +6001,10 @@
         <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G174" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H174" t="s">
         <v>124</v>
@@ -6027,10 +6027,10 @@
         <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G175" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H175" t="s">
         <v>125</v>
@@ -6056,10 +6056,10 @@
         <v>331</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G176" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H176" t="s">
         <v>126</v>
@@ -6082,10 +6082,10 @@
         <v>332</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G177" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H177" t="s">
         <v>127</v>
@@ -6111,10 +6111,10 @@
         <v>329</v>
       </c>
       <c r="F178" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G178" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H178" t="s">
         <v>149</v>
@@ -6137,10 +6137,10 @@
         <v>330</v>
       </c>
       <c r="F179" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G179" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H179" t="s">
         <v>150</v>
@@ -6163,10 +6163,10 @@
         <v>331</v>
       </c>
       <c r="F180" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G180" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H180" t="s">
         <v>151</v>
@@ -6189,10 +6189,10 @@
         <v>332</v>
       </c>
       <c r="F181" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G181" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H181" t="s">
         <v>152</v>
@@ -6215,10 +6215,10 @@
         <v>329</v>
       </c>
       <c r="F182" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G182" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H182" t="s">
         <v>173</v>
@@ -6241,10 +6241,10 @@
         <v>330</v>
       </c>
       <c r="F183" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G183" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H183" t="s">
         <v>174</v>
@@ -6267,10 +6267,10 @@
         <v>331</v>
       </c>
       <c r="F184" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G184" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H184" t="s">
         <v>175</v>
@@ -6293,10 +6293,10 @@
         <v>332</v>
       </c>
       <c r="F185" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G185" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H185" t="s">
         <v>176</v>
@@ -6319,10 +6319,10 @@
         <v>329</v>
       </c>
       <c r="F186" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G186" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H186" t="s">
         <v>204</v>
@@ -6345,10 +6345,10 @@
         <v>330</v>
       </c>
       <c r="F187" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G187" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H187" t="s">
         <v>205</v>
@@ -6374,10 +6374,10 @@
         <v>331</v>
       </c>
       <c r="F188" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G188" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H188" t="s">
         <v>207</v>
@@ -6400,10 +6400,10 @@
         <v>332</v>
       </c>
       <c r="F189" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G189" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H189" t="s">
         <v>208</v>
@@ -6429,10 +6429,10 @@
         <v>329</v>
       </c>
       <c r="F190" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G190" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H190" t="s">
         <v>239</v>
@@ -6455,10 +6455,10 @@
         <v>330</v>
       </c>
       <c r="F191" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G191" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H191" t="s">
         <v>240</v>
@@ -6484,10 +6484,10 @@
         <v>331</v>
       </c>
       <c r="F192" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G192" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H192" t="s">
         <v>242</v>
@@ -6510,10 +6510,10 @@
         <v>332</v>
       </c>
       <c r="F193" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G193" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H193" t="s">
         <v>243</v>
@@ -6539,10 +6539,10 @@
         <v>329</v>
       </c>
       <c r="F194" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G194" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H194" t="s">
         <v>31</v>
@@ -6565,10 +6565,10 @@
         <v>330</v>
       </c>
       <c r="F195" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G195" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H195" t="s">
         <v>32</v>
@@ -6591,10 +6591,10 @@
         <v>331</v>
       </c>
       <c r="F196" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G196" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H196" t="s">
         <v>33</v>
@@ -6617,10 +6617,10 @@
         <v>332</v>
       </c>
       <c r="F197" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G197" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H197" t="s">
         <v>34</v>
@@ -6643,10 +6643,10 @@
         <v>329</v>
       </c>
       <c r="F198" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G198" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H198" t="s">
         <v>58</v>
@@ -6669,10 +6669,10 @@
         <v>330</v>
       </c>
       <c r="F199" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G199" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H199" t="s">
         <v>58</v>
@@ -6695,10 +6695,10 @@
         <v>331</v>
       </c>
       <c r="F200" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G200" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H200" t="s">
         <v>59</v>
@@ -6721,10 +6721,10 @@
         <v>332</v>
       </c>
       <c r="F201" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G201" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H201" t="s">
         <v>60</v>
@@ -6747,10 +6747,10 @@
         <v>329</v>
       </c>
       <c r="F202" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G202" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H202" t="s">
         <v>96</v>
@@ -6773,10 +6773,10 @@
         <v>330</v>
       </c>
       <c r="F203" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G203" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H203" t="s">
         <v>97</v>
@@ -6802,10 +6802,10 @@
         <v>331</v>
       </c>
       <c r="F204" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G204" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H204" t="s">
         <v>99</v>
@@ -6828,10 +6828,10 @@
         <v>332</v>
       </c>
       <c r="F205" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G205" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H205" t="s">
         <v>100</v>
@@ -6857,10 +6857,10 @@
         <v>329</v>
       </c>
       <c r="F206" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G206" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H206" t="s">
         <v>128</v>
@@ -6883,10 +6883,10 @@
         <v>330</v>
       </c>
       <c r="F207" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G207" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H207" t="s">
         <v>129</v>
@@ -6912,10 +6912,10 @@
         <v>331</v>
       </c>
       <c r="F208" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G208" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H208" t="s">
         <v>131</v>
@@ -6938,10 +6938,10 @@
         <v>332</v>
       </c>
       <c r="F209" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G209" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H209" t="s">
         <v>132</v>
@@ -6967,10 +6967,10 @@
         <v>329</v>
       </c>
       <c r="F210" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G210" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H210" t="s">
         <v>153</v>
@@ -6993,10 +6993,10 @@
         <v>330</v>
       </c>
       <c r="F211" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G211" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H211" t="s">
         <v>154</v>
@@ -7019,10 +7019,10 @@
         <v>331</v>
       </c>
       <c r="F212" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G212" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H212" t="s">
         <v>155</v>
@@ -7045,10 +7045,10 @@
         <v>332</v>
       </c>
       <c r="F213" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G213" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H213" t="s">
         <v>156</v>
@@ -7071,10 +7071,10 @@
         <v>329</v>
       </c>
       <c r="F214" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G214" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H214" t="s">
         <v>177</v>
@@ -7097,10 +7097,10 @@
         <v>330</v>
       </c>
       <c r="F215" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G215" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H215" t="s">
         <v>178</v>
@@ -7123,10 +7123,10 @@
         <v>331</v>
       </c>
       <c r="F216" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G216" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H216" t="s">
         <v>179</v>
@@ -7149,10 +7149,10 @@
         <v>332</v>
       </c>
       <c r="F217" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G217" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H217" t="s">
         <v>180</v>
@@ -7175,10 +7175,10 @@
         <v>329</v>
       </c>
       <c r="F218" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G218" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H218" t="s">
         <v>210</v>
@@ -7201,10 +7201,10 @@
         <v>330</v>
       </c>
       <c r="F219" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G219" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H219" t="s">
         <v>211</v>
@@ -7230,10 +7230,10 @@
         <v>331</v>
       </c>
       <c r="F220" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G220" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H220" t="s">
         <v>213</v>
@@ -7256,10 +7256,10 @@
         <v>332</v>
       </c>
       <c r="F221" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G221" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H221" t="s">
         <v>214</v>
@@ -7285,10 +7285,10 @@
         <v>329</v>
       </c>
       <c r="F222" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G222" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H222" t="s">
         <v>245</v>
@@ -7311,10 +7311,10 @@
         <v>330</v>
       </c>
       <c r="F223" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G223" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H223" t="s">
         <v>246</v>
@@ -7340,10 +7340,10 @@
         <v>331</v>
       </c>
       <c r="F224" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G224" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H224" t="s">
         <v>248</v>
@@ -7366,10 +7366,10 @@
         <v>332</v>
       </c>
       <c r="F225" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G225" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H225" t="s">
         <v>249</v>
@@ -7395,10 +7395,10 @@
         <v>329</v>
       </c>
       <c r="F226" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G226" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H226" t="s">
         <v>39</v>
@@ -7421,10 +7421,10 @@
         <v>330</v>
       </c>
       <c r="F227" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G227" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H227" t="s">
         <v>40</v>
@@ -7447,10 +7447,10 @@
         <v>331</v>
       </c>
       <c r="F228" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G228" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H228" t="s">
         <v>41</v>
@@ -7473,10 +7473,10 @@
         <v>332</v>
       </c>
       <c r="F229" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G229" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H229" t="s">
         <v>42</v>
@@ -7499,10 +7499,10 @@
         <v>329</v>
       </c>
       <c r="F230" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G230" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H230" t="s">
         <v>63</v>
@@ -7525,10 +7525,10 @@
         <v>330</v>
       </c>
       <c r="F231" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G231" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H231" t="s">
         <v>63</v>
@@ -7551,10 +7551,10 @@
         <v>331</v>
       </c>
       <c r="F232" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G232" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H232" t="s">
         <v>64</v>
@@ -7577,10 +7577,10 @@
         <v>332</v>
       </c>
       <c r="F233" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G233" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H233" t="s">
         <v>65</v>
@@ -7603,10 +7603,10 @@
         <v>329</v>
       </c>
       <c r="F234" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G234" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -7626,10 +7626,10 @@
         <v>330</v>
       </c>
       <c r="F235" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G235" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -7649,10 +7649,10 @@
         <v>331</v>
       </c>
       <c r="F236" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G236" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -7672,10 +7672,10 @@
         <v>332</v>
       </c>
       <c r="F237" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G237" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -7695,10 +7695,10 @@
         <v>329</v>
       </c>
       <c r="F238" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G238" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
@@ -7718,10 +7718,10 @@
         <v>330</v>
       </c>
       <c r="F239" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G239" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
@@ -7741,10 +7741,10 @@
         <v>331</v>
       </c>
       <c r="F240" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G240" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -7764,10 +7764,10 @@
         <v>332</v>
       </c>
       <c r="F241" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G241" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -7787,10 +7787,10 @@
         <v>329</v>
       </c>
       <c r="F242" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G242" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -7810,10 +7810,10 @@
         <v>330</v>
       </c>
       <c r="F243" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G243" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -7833,10 +7833,10 @@
         <v>331</v>
       </c>
       <c r="F244" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G244" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -7856,10 +7856,10 @@
         <v>332</v>
       </c>
       <c r="F245" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G245" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -7879,10 +7879,10 @@
         <v>329</v>
       </c>
       <c r="F246" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G246" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -7902,10 +7902,10 @@
         <v>330</v>
       </c>
       <c r="F247" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G247" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -7925,10 +7925,10 @@
         <v>331</v>
       </c>
       <c r="F248" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G248" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
@@ -7948,10 +7948,10 @@
         <v>332</v>
       </c>
       <c r="F249" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G249" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
@@ -7971,10 +7971,10 @@
         <v>329</v>
       </c>
       <c r="F250" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G250" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -7994,10 +7994,10 @@
         <v>330</v>
       </c>
       <c r="F251" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G251" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
@@ -8017,10 +8017,10 @@
         <v>331</v>
       </c>
       <c r="F252" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G252" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -8040,10 +8040,10 @@
         <v>332</v>
       </c>
       <c r="F253" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G253" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -8063,10 +8063,10 @@
         <v>329</v>
       </c>
       <c r="F254" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G254" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
@@ -8086,10 +8086,10 @@
         <v>330</v>
       </c>
       <c r="F255" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G255" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -8109,10 +8109,10 @@
         <v>331</v>
       </c>
       <c r="F256" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G256" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -8132,10 +8132,10 @@
         <v>332</v>
       </c>
       <c r="F257" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G257" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -8151,8 +8151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10602B5-8061-9841-B1CF-59F4D777D95C}">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8214,10 +8214,10 @@
         <v>327</v>
       </c>
       <c r="F2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H2" t="s">
         <v>252</v>
@@ -8240,10 +8240,10 @@
         <v>328</v>
       </c>
       <c r="F3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H3" t="s">
         <v>253</v>
@@ -8266,10 +8266,10 @@
         <v>327</v>
       </c>
       <c r="F4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H4" t="s">
         <v>266</v>
@@ -8292,10 +8292,10 @@
         <v>328</v>
       </c>
       <c r="F5" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H5" t="s">
         <v>267</v>
@@ -8318,10 +8318,10 @@
         <v>327</v>
       </c>
       <c r="F6" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H6" t="s">
         <v>280</v>
@@ -8344,10 +8344,10 @@
         <v>328</v>
       </c>
       <c r="F7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H7" t="s">
         <v>281</v>
@@ -8370,10 +8370,10 @@
         <v>327</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H8" t="s">
         <v>292</v>
@@ -8396,10 +8396,10 @@
         <v>328</v>
       </c>
       <c r="F9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H9" t="s">
         <v>293</v>
@@ -8422,10 +8422,10 @@
         <v>327</v>
       </c>
       <c r="F10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H10" t="s">
         <v>304</v>
@@ -8448,10 +8448,10 @@
         <v>328</v>
       </c>
       <c r="F11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
         <v>305</v>
@@ -8474,10 +8474,10 @@
         <v>327</v>
       </c>
       <c r="F12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G12" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H12" t="s">
         <v>316</v>
@@ -8500,10 +8500,10 @@
         <v>328</v>
       </c>
       <c r="F13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H13" t="s">
         <v>317</v>
@@ -8526,10 +8526,10 @@
         <v>327</v>
       </c>
       <c r="F14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H14" t="s">
         <v>183</v>
@@ -8552,10 +8552,10 @@
         <v>328</v>
       </c>
       <c r="F15" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H15" t="s">
         <v>325</v>
@@ -8578,10 +8578,10 @@
         <v>327</v>
       </c>
       <c r="F16" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H16" t="s">
         <v>326</v>
@@ -8604,10 +8604,10 @@
         <v>328</v>
       </c>
       <c r="F17" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H17" t="s">
         <v>220</v>
@@ -8630,10 +8630,10 @@
         <v>327</v>
       </c>
       <c r="F18" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H18" t="s">
         <v>258</v>
@@ -8656,10 +8656,10 @@
         <v>328</v>
       </c>
       <c r="F19" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H19" t="s">
         <v>259</v>
@@ -8682,10 +8682,10 @@
         <v>327</v>
       </c>
       <c r="F20" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H20" t="s">
         <v>272</v>
@@ -8708,10 +8708,10 @@
         <v>328</v>
       </c>
       <c r="F21" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G21" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H21" t="s">
         <v>273</v>
@@ -8734,10 +8734,10 @@
         <v>327</v>
       </c>
       <c r="F22" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G22" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H22" t="s">
         <v>286</v>
@@ -8760,10 +8760,10 @@
         <v>328</v>
       </c>
       <c r="F23" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G23" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H23" t="s">
         <v>287</v>
@@ -8786,10 +8786,10 @@
         <v>327</v>
       </c>
       <c r="F24" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G24" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H24" t="s">
         <v>298</v>
@@ -8812,10 +8812,10 @@
         <v>328</v>
       </c>
       <c r="F25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H25" t="s">
         <v>299</v>
@@ -8838,10 +8838,10 @@
         <v>327</v>
       </c>
       <c r="F26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G26" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H26" t="s">
         <v>310</v>
@@ -8864,10 +8864,10 @@
         <v>328</v>
       </c>
       <c r="F27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H27" t="s">
         <v>311</v>
@@ -8890,10 +8890,10 @@
         <v>327</v>
       </c>
       <c r="F28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G28" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H28" t="s">
         <v>320</v>
@@ -8916,10 +8916,10 @@
         <v>328</v>
       </c>
       <c r="F29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G29" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H29" t="s">
         <v>321</v>
@@ -8942,10 +8942,10 @@
         <v>327</v>
       </c>
       <c r="F30" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G30" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H30" t="s">
         <v>200</v>
@@ -8968,10 +8968,10 @@
         <v>328</v>
       </c>
       <c r="F31" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G31" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H31" t="s">
         <v>203</v>
@@ -8994,10 +8994,10 @@
         <v>327</v>
       </c>
       <c r="F32" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H32" t="s">
         <v>235</v>
@@ -9020,10 +9020,10 @@
         <v>328</v>
       </c>
       <c r="F33" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H33" t="s">
         <v>238</v>
@@ -9046,10 +9046,10 @@
         <v>327</v>
       </c>
       <c r="F34" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G34" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H34" t="s">
         <v>254</v>
@@ -9072,10 +9072,10 @@
         <v>328</v>
       </c>
       <c r="F35" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G35" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H35" t="s">
         <v>255</v>
@@ -9098,10 +9098,10 @@
         <v>327</v>
       </c>
       <c r="F36" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G36" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H36" t="s">
         <v>268</v>
@@ -9124,10 +9124,10 @@
         <v>328</v>
       </c>
       <c r="F37" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G37" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H37" t="s">
         <v>269</v>
@@ -9150,10 +9150,10 @@
         <v>327</v>
       </c>
       <c r="F38" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H38" t="s">
         <v>282</v>
@@ -9176,10 +9176,10 @@
         <v>328</v>
       </c>
       <c r="F39" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G39" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H39" t="s">
         <v>283</v>
@@ -9202,10 +9202,10 @@
         <v>327</v>
       </c>
       <c r="F40" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G40" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H40" t="s">
         <v>294</v>
@@ -9228,10 +9228,10 @@
         <v>328</v>
       </c>
       <c r="F41" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G41" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H41" t="s">
         <v>295</v>
@@ -9254,10 +9254,10 @@
         <v>327</v>
       </c>
       <c r="F42" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G42" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H42" t="s">
         <v>306</v>
@@ -9280,10 +9280,10 @@
         <v>328</v>
       </c>
       <c r="F43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G43" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H43" t="s">
         <v>307</v>
@@ -9306,10 +9306,10 @@
         <v>327</v>
       </c>
       <c r="F44" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G44" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -9329,10 +9329,10 @@
         <v>328</v>
       </c>
       <c r="F45" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G45" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -9352,10 +9352,10 @@
         <v>327</v>
       </c>
       <c r="F46" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G46" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H46" t="s">
         <v>188</v>
@@ -9378,10 +9378,10 @@
         <v>328</v>
       </c>
       <c r="F47" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G47" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H47" t="s">
         <v>191</v>
@@ -9404,10 +9404,10 @@
         <v>327</v>
       </c>
       <c r="F48" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G48" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H48" t="s">
         <v>223</v>
@@ -9430,10 +9430,10 @@
         <v>328</v>
       </c>
       <c r="F49" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G49" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H49" t="s">
         <v>226</v>
@@ -9456,10 +9456,10 @@
         <v>327</v>
       </c>
       <c r="F50" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G50" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H50" t="s">
         <v>264</v>
@@ -9482,10 +9482,10 @@
         <v>328</v>
       </c>
       <c r="F51" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G51" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -9505,10 +9505,10 @@
         <v>327</v>
       </c>
       <c r="F52" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G52" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H52" t="s">
         <v>278</v>
@@ -9531,10 +9531,10 @@
         <v>328</v>
       </c>
       <c r="F53" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G53" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -9554,10 +9554,10 @@
         <v>327</v>
       </c>
       <c r="F54" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G54" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -9577,10 +9577,10 @@
         <v>328</v>
       </c>
       <c r="F55" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G55" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -9600,10 +9600,10 @@
         <v>327</v>
       </c>
       <c r="F56" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G56" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -9623,10 +9623,10 @@
         <v>328</v>
       </c>
       <c r="F57" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G57" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -9646,10 +9646,10 @@
         <v>327</v>
       </c>
       <c r="F58" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G58" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -9669,10 +9669,10 @@
         <v>328</v>
       </c>
       <c r="F59" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G59" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -9692,10 +9692,10 @@
         <v>327</v>
       </c>
       <c r="F60" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G60" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -9715,10 +9715,10 @@
         <v>328</v>
       </c>
       <c r="F61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G61" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -9738,10 +9738,10 @@
         <v>327</v>
       </c>
       <c r="F62" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G62" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -9761,10 +9761,10 @@
         <v>328</v>
       </c>
       <c r="F63" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G63" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -9784,10 +9784,10 @@
         <v>327</v>
       </c>
       <c r="F64" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G64" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -9807,10 +9807,10 @@
         <v>328</v>
       </c>
       <c r="F65" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G65" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -9830,10 +9830,10 @@
         <v>327</v>
       </c>
       <c r="F66" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G66" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H66" t="s">
         <v>256</v>
@@ -9856,10 +9856,10 @@
         <v>328</v>
       </c>
       <c r="F67" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G67" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H67" t="s">
         <v>257</v>
@@ -9882,10 +9882,10 @@
         <v>327</v>
       </c>
       <c r="F68" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G68" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H68" t="s">
         <v>270</v>
@@ -9908,10 +9908,10 @@
         <v>328</v>
       </c>
       <c r="F69" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G69" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H69" t="s">
         <v>271</v>
@@ -9934,10 +9934,10 @@
         <v>327</v>
       </c>
       <c r="F70" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G70" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H70" t="s">
         <v>284</v>
@@ -9960,10 +9960,10 @@
         <v>328</v>
       </c>
       <c r="F71" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G71" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H71" t="s">
         <v>285</v>
@@ -9986,10 +9986,10 @@
         <v>327</v>
       </c>
       <c r="F72" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G72" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H72" t="s">
         <v>296</v>
@@ -10012,10 +10012,10 @@
         <v>328</v>
       </c>
       <c r="F73" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G73" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H73" t="s">
         <v>297</v>
@@ -10038,10 +10038,10 @@
         <v>327</v>
       </c>
       <c r="F74" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G74" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H74" t="s">
         <v>308</v>
@@ -10064,10 +10064,10 @@
         <v>328</v>
       </c>
       <c r="F75" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G75" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H75" t="s">
         <v>309</v>
@@ -10090,10 +10090,10 @@
         <v>327</v>
       </c>
       <c r="F76" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G76" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H76" t="s">
         <v>318</v>
@@ -10116,10 +10116,10 @@
         <v>328</v>
       </c>
       <c r="F77" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G77" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H77" t="s">
         <v>319</v>
@@ -10142,10 +10142,10 @@
         <v>327</v>
       </c>
       <c r="F78" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G78" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H78" t="s">
         <v>194</v>
@@ -10168,10 +10168,10 @@
         <v>328</v>
       </c>
       <c r="F79" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G79" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H79" t="s">
         <v>197</v>
@@ -10194,10 +10194,10 @@
         <v>327</v>
       </c>
       <c r="F80" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G80" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H80" t="s">
         <v>229</v>
@@ -10220,10 +10220,10 @@
         <v>328</v>
       </c>
       <c r="F81" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G81" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H81" t="s">
         <v>232</v>
@@ -10246,10 +10246,10 @@
         <v>327</v>
       </c>
       <c r="F82" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G82" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H82" t="s">
         <v>260</v>
@@ -10272,10 +10272,10 @@
         <v>328</v>
       </c>
       <c r="F83" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G83" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H83" t="s">
         <v>261</v>
@@ -10298,10 +10298,10 @@
         <v>327</v>
       </c>
       <c r="F84" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G84" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H84" t="s">
         <v>274</v>
@@ -10324,10 +10324,10 @@
         <v>328</v>
       </c>
       <c r="F85" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G85" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H85" t="s">
         <v>275</v>
@@ -10350,10 +10350,10 @@
         <v>327</v>
       </c>
       <c r="F86" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G86" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H86" t="s">
         <v>288</v>
@@ -10376,10 +10376,10 @@
         <v>328</v>
       </c>
       <c r="F87" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G87" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H87" t="s">
         <v>289</v>
@@ -10402,10 +10402,10 @@
         <v>327</v>
       </c>
       <c r="F88" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G88" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H88" t="s">
         <v>300</v>
@@ -10428,10 +10428,10 @@
         <v>328</v>
       </c>
       <c r="F89" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G89" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H89" t="s">
         <v>301</v>
@@ -10454,10 +10454,10 @@
         <v>327</v>
       </c>
       <c r="F90" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G90" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H90" t="s">
         <v>312</v>
@@ -10480,10 +10480,10 @@
         <v>328</v>
       </c>
       <c r="F91" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G91" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H91" t="s">
         <v>313</v>
@@ -10506,10 +10506,10 @@
         <v>327</v>
       </c>
       <c r="F92" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G92" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H92" t="s">
         <v>322</v>
@@ -10532,10 +10532,10 @@
         <v>328</v>
       </c>
       <c r="F93" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G93" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H93" t="s">
         <v>322</v>
@@ -10558,10 +10558,10 @@
         <v>327</v>
       </c>
       <c r="F94" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G94" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H94" t="s">
         <v>206</v>
@@ -10584,10 +10584,10 @@
         <v>328</v>
       </c>
       <c r="F95" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G95" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H95" t="s">
         <v>209</v>
@@ -10610,10 +10610,10 @@
         <v>327</v>
       </c>
       <c r="F96" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G96" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H96" t="s">
         <v>241</v>
@@ -10636,10 +10636,10 @@
         <v>328</v>
       </c>
       <c r="F97" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G97" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H97" t="s">
         <v>244</v>
@@ -10662,10 +10662,10 @@
         <v>327</v>
       </c>
       <c r="F98" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G98" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H98" t="s">
         <v>262</v>
@@ -10688,10 +10688,10 @@
         <v>328</v>
       </c>
       <c r="F99" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G99" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H99" t="s">
         <v>263</v>
@@ -10714,10 +10714,10 @@
         <v>327</v>
       </c>
       <c r="F100" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G100" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H100" t="s">
         <v>276</v>
@@ -10740,10 +10740,10 @@
         <v>328</v>
       </c>
       <c r="F101" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G101" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H101" t="s">
         <v>277</v>
@@ -10766,10 +10766,10 @@
         <v>327</v>
       </c>
       <c r="F102" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G102" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H102" t="s">
         <v>290</v>
@@ -10792,10 +10792,10 @@
         <v>328</v>
       </c>
       <c r="F103" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G103" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H103" t="s">
         <v>291</v>
@@ -10818,10 +10818,10 @@
         <v>327</v>
       </c>
       <c r="F104" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G104" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H104" t="s">
         <v>302</v>
@@ -10844,10 +10844,10 @@
         <v>328</v>
       </c>
       <c r="F105" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G105" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H105" t="s">
         <v>303</v>
@@ -10870,10 +10870,10 @@
         <v>327</v>
       </c>
       <c r="F106" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G106" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H106" t="s">
         <v>314</v>
@@ -10896,10 +10896,10 @@
         <v>328</v>
       </c>
       <c r="F107" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G107" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H107" t="s">
         <v>315</v>
@@ -10922,10 +10922,10 @@
         <v>327</v>
       </c>
       <c r="F108" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G108" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H108" t="s">
         <v>323</v>
@@ -10948,10 +10948,10 @@
         <v>328</v>
       </c>
       <c r="F109" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G109" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H109" t="s">
         <v>324</v>
@@ -10974,10 +10974,10 @@
         <v>327</v>
       </c>
       <c r="F110" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G110" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H110" t="s">
         <v>212</v>
@@ -11000,10 +11000,10 @@
         <v>328</v>
       </c>
       <c r="F111" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G111" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H111" t="s">
         <v>215</v>
@@ -11026,10 +11026,10 @@
         <v>327</v>
       </c>
       <c r="F112" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G112" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H112" t="s">
         <v>247</v>
@@ -11052,10 +11052,10 @@
         <v>328</v>
       </c>
       <c r="F113" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G113" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H113" t="s">
         <v>250</v>
@@ -11078,10 +11078,10 @@
         <v>327</v>
       </c>
       <c r="F114" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G114" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H114" t="s">
         <v>265</v>
@@ -11104,10 +11104,10 @@
         <v>328</v>
       </c>
       <c r="F115" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G115" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -11127,10 +11127,10 @@
         <v>327</v>
       </c>
       <c r="F116" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G116" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H116" t="s">
         <v>279</v>
@@ -11153,10 +11153,10 @@
         <v>328</v>
       </c>
       <c r="F117" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G117" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -11176,10 +11176,10 @@
         <v>327</v>
       </c>
       <c r="F118" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G118" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -11199,10 +11199,10 @@
         <v>328</v>
       </c>
       <c r="F119" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G119" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -11222,10 +11222,10 @@
         <v>327</v>
       </c>
       <c r="F120" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G120" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -11245,10 +11245,10 @@
         <v>328</v>
       </c>
       <c r="F121" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G121" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -11268,10 +11268,10 @@
         <v>327</v>
       </c>
       <c r="F122" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G122" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -11291,10 +11291,10 @@
         <v>328</v>
       </c>
       <c r="F123" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G123" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -11314,10 +11314,10 @@
         <v>327</v>
       </c>
       <c r="F124" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G124" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -11337,10 +11337,10 @@
         <v>328</v>
       </c>
       <c r="F125" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G125" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -11360,10 +11360,10 @@
         <v>327</v>
       </c>
       <c r="F126" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G126" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -11383,10 +11383,10 @@
         <v>328</v>
       </c>
       <c r="F127" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G127" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -11406,10 +11406,10 @@
         <v>327</v>
       </c>
       <c r="F128" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G128" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -11429,10 +11429,10 @@
         <v>328</v>
       </c>
       <c r="F129" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G129" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
